--- a/data/csv/stats_pitching_raw_tsl_2024.xlsx
+++ b/data/csv/stats_pitching_raw_tsl_2024.xlsx
@@ -20,11 +20,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="151">
   <si>
     <t xml:space="preserve">Player</t>
   </si>
   <si>
+    <t xml:space="preserve">First name</t>
+  </si>
+  <si>
     <t xml:space="preserve">Team</t>
   </si>
   <si>
@@ -115,6 +118,129 @@
     <t xml:space="preserve">ATLANTA.....</t>
   </si>
   <si>
+    <t xml:space="preserve">GARCIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUISFER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAMPA......</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE LOS SANTOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GUARIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATLAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VAN MOOK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAURO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORIOLES....</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COLLAZO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JESUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DODGERS.....</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FRANCO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YANCARLO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATLANTA...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GONZALEZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DAYAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DODGERS....</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BONGE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DODGERS.........</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NACAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LESLIE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DODGERS......</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOLENMAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEM OUDE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAMPA...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FINOL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DODGERS...........</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROJAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANGEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DODGERS.......</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CASTILLO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALEJANDRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAMPA..</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TORREALBA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAMPA.........</t>
+  </si>
+  <si>
     <t xml:space="preserve">ROCCO</t>
   </si>
   <si>
@@ -124,94 +250,19 @@
     <t xml:space="preserve">ORIOLES.....</t>
   </si>
   <si>
-    <t xml:space="preserve">CASTILLO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALEJANDRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAMPA..</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GARCIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LUISFER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAMPA......</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE LOS SANTOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GUARIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATLAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VAN MOOK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAURO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ORIOLES....</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRANCO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YANCARLO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATLANTA...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COLLAZO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JESUS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DODGERS.....</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BONGE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DODGERS.........</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NACAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LESLIE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DODGERS......</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FINOL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DODGERS...........</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOLENMAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SEM OUDE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAMPA...</t>
+    <t xml:space="preserve">DE LA ROSA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EDUARDO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORIOLES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZIRONI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAICOL</t>
   </si>
   <si>
     <t xml:space="preserve">OTAL TORO</t>
@@ -223,54 +274,6 @@
     <t xml:space="preserve">ORIOLE</t>
   </si>
   <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GONZALEZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DAYAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DODGERS....</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROJAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANGEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DODGERS.......</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE LA ROSA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EDUARDO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ORIOLES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TORREALBA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAMPA.........</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZIRONI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAICOL</t>
-  </si>
-  <si>
     <t xml:space="preserve">RODRIGUEZ</t>
   </si>
   <si>
@@ -286,6 +289,12 @@
     <t xml:space="preserve">DAVIDE</t>
   </si>
   <si>
+    <t xml:space="preserve">AGUILAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAFAEL</t>
+  </si>
+  <si>
     <t xml:space="preserve">NARANJO</t>
   </si>
   <si>
@@ -295,12 +304,6 @@
     <t xml:space="preserve">ORIOLES...</t>
   </si>
   <si>
-    <t xml:space="preserve">AGUILAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RAFAEL</t>
-  </si>
-  <si>
     <t xml:space="preserve">MILANO</t>
   </si>
   <si>
@@ -334,69 +337,75 @@
     <t xml:space="preserve">DODGERS........</t>
   </si>
   <si>
+    <t xml:space="preserve">NIEMEYER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FINN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHINEA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PABLO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAMPA........</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COLOMBO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GABRIELE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORIOLES..</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARRASCO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FREIONIL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DODGERS.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TORRES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORIOLES..........</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZAMBRANO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABRAHAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DODGERS..</t>
+  </si>
+  <si>
     <t xml:space="preserve">JUAN</t>
   </si>
   <si>
     <t xml:space="preserve">ATLANTA........</t>
   </si>
   <si>
-    <t xml:space="preserve">NIEMEYER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FINN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHINEA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PABLO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAMPA........</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COLOMBO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GABRIELE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ORIOLES..</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CARRASCO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FREIONIL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DODGERS.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TORRES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ORIOLES..........</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZAMBRANO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABRAHAM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DODGERS..</t>
-  </si>
-  <si>
     <t xml:space="preserve">SERRA</t>
   </si>
   <si>
     <t xml:space="preserve">DIEGO</t>
   </si>
   <si>
+    <t xml:space="preserve">MIGUEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUIS</t>
+  </si>
+  <si>
     <t xml:space="preserve">BORLONI</t>
   </si>
   <si>
@@ -428,12 +437,6 @@
   </si>
   <si>
     <t xml:space="preserve">DELGADO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MIGUEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LUIS</t>
   </si>
   <si>
     <t xml:space="preserve">MONTIEL</t>
@@ -679,21 +682,22 @@
   <dimension ref="A1:AD46"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="AA2" activeCellId="0" sqref="AA2:AD46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="6.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="4.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="6.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="4.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="5.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="6.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="5.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="4.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="4.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="4.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="5.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="9.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="4.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="14" style="0" width="3.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="16" style="0" width="4.07"/>
@@ -710,100 +714,103 @@
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
       <c r="D1" s="0" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AA1" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AB1" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AC1" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AD1" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D2" s="0" t="str">
-        <f aca="false">MID(C2, 1, 3)</f>
+        <f aca="false">MID(C2,1,3)</f>
         <v>ATL</v>
       </c>
       <c r="E2" s="0" t="n">
@@ -887,17 +894,17 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D3" s="0" t="str">
-        <f aca="false">MID(C3, 1, 3)</f>
-        <v>ORI</v>
+        <f aca="false">MID(C3,1,3)</f>
+        <v>TAM</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>0</v>
@@ -909,10 +916,10 @@
         <v>0</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" s="0" t="n">
         <v>0</v>
@@ -924,10 +931,10 @@
         <v>0</v>
       </c>
       <c r="M3" s="0" t="n">
-        <v>5</v>
+        <v>1.1</v>
       </c>
       <c r="N3" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O3" s="0" t="n">
         <v>0</v>
@@ -936,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="Q3" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R3" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S3" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T3" s="0" t="n">
         <v>0</v>
@@ -951,16 +958,16 @@
         <v>0</v>
       </c>
       <c r="V3" s="0" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="W3" s="0" t="n">
-        <v>0.125</v>
+        <v>0.429</v>
       </c>
       <c r="X3" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y3" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="0" t="n">
         <v>0</v>
@@ -980,17 +987,17 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D4" s="0" t="str">
-        <f aca="false">MID(C4, 1, 3)</f>
-        <v>TAM</v>
+        <f aca="false">MID(C4,1,3)</f>
+        <v>ATL</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>0</v>
@@ -1002,13 +1009,13 @@
         <v>0</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" s="0" t="n">
         <v>0</v>
       </c>
       <c r="J4" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" s="0" t="n">
         <v>0</v>
@@ -1017,22 +1024,22 @@
         <v>0</v>
       </c>
       <c r="M4" s="0" t="n">
-        <v>3</v>
+        <v>0.1</v>
       </c>
       <c r="N4" s="0" t="n">
         <v>0</v>
       </c>
       <c r="O4" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P4" s="0" t="n">
         <v>0</v>
       </c>
       <c r="Q4" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R4" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S4" s="0" t="n">
         <v>0</v>
@@ -1044,16 +1051,16 @@
         <v>0</v>
       </c>
       <c r="V4" s="0" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="W4" s="0" t="n">
         <v>0</v>
       </c>
       <c r="X4" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y4" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z4" s="0" t="n">
         <v>0</v>
@@ -1073,17 +1080,17 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D5" s="0" t="str">
-        <f aca="false">MID(C5, 1, 3)</f>
-        <v>TAM</v>
+        <f aca="false">MID(C5,1,3)</f>
+        <v>ORI</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>0</v>
@@ -1092,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>0</v>
+        <v>0.78</v>
       </c>
       <c r="H5" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I5" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" s="0" t="n">
         <v>0</v>
@@ -1110,40 +1117,40 @@
         <v>0</v>
       </c>
       <c r="M5" s="0" t="n">
-        <v>1.1</v>
+        <v>9</v>
       </c>
       <c r="N5" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O5" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P5" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5" s="0" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="S5" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T5" s="0" t="n">
         <v>0</v>
       </c>
       <c r="U5" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V5" s="0" t="n">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="W5" s="0" t="n">
-        <v>0.429</v>
+        <v>0.156</v>
       </c>
       <c r="X5" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y5" s="0" t="n">
         <v>0</v>
@@ -1166,17 +1173,17 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D6" s="0" t="str">
-        <f aca="false">MID(C6, 1, 3)</f>
-        <v>ATL</v>
+        <f aca="false">MID(C6,1,3)</f>
+        <v>DOD</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>0</v>
@@ -1185,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" s="0" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I6" s="0" t="n">
         <v>0</v>
       </c>
       <c r="J6" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" s="0" t="n">
         <v>0</v>
@@ -1203,43 +1210,43 @@
         <v>0</v>
       </c>
       <c r="M6" s="0" t="n">
-        <v>0.1</v>
+        <v>7</v>
       </c>
       <c r="N6" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6" s="0" t="n">
         <v>2</v>
       </c>
       <c r="P6" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6" s="0" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="R6" s="0" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="S6" s="0" t="n">
         <v>0</v>
       </c>
       <c r="T6" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U6" s="0" t="n">
         <v>0</v>
       </c>
       <c r="V6" s="0" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="W6" s="0" t="n">
-        <v>0</v>
+        <v>0.045</v>
       </c>
       <c r="X6" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y6" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z6" s="0" t="n">
         <v>0</v>
@@ -1259,35 +1266,35 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D7" s="0" t="str">
-        <f aca="false">MID(C7, 1, 3)</f>
-        <v>ORI</v>
+        <f aca="false">MID(C7,1,3)</f>
+        <v>ATL</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>0.78</v>
+        <v>1.11</v>
       </c>
       <c r="H7" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I7" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J7" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" s="0" t="n">
         <v>0</v>
@@ -1296,25 +1303,25 @@
         <v>0</v>
       </c>
       <c r="M7" s="0" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="N7" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="O7" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="O7" s="0" t="n">
-        <v>2</v>
-      </c>
       <c r="P7" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q7" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R7" s="0" t="n">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="S7" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T7" s="0" t="n">
         <v>0</v>
@@ -1323,16 +1330,16 @@
         <v>1</v>
       </c>
       <c r="V7" s="0" t="n">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="W7" s="0" t="n">
-        <v>0.156</v>
+        <v>0.174</v>
       </c>
       <c r="X7" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y7" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z7" s="0" t="n">
         <v>0</v>
@@ -1352,32 +1359,32 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D8" s="0" t="str">
-        <f aca="false">MID(C8, 1, 3)</f>
-        <v>ATL</v>
-      </c>
-      <c r="E8" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F8" s="0" t="n">
-        <v>0</v>
+        <f aca="false">MID(C8,1,3)</f>
+        <v>DOD</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>1.11</v>
+        <v>1.17</v>
       </c>
       <c r="H8" s="0" t="n">
         <v>4</v>
       </c>
       <c r="I8" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J8" s="0" t="n">
         <v>0</v>
@@ -1389,43 +1396,43 @@
         <v>0</v>
       </c>
       <c r="M8" s="0" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="N8" s="0" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="O8" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P8" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q8" s="0" t="n">
         <v>4</v>
       </c>
       <c r="R8" s="0" t="n">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="S8" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T8" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U8" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V8" s="0" t="n">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="W8" s="0" t="n">
-        <v>0.174</v>
+        <v>0.209</v>
       </c>
       <c r="X8" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y8" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z8" s="0" t="n">
         <v>0</v>
@@ -1445,77 +1452,77 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D9" s="0" t="str">
-        <f aca="false">MID(C9, 1, 3)</f>
+        <f aca="false">MID(C9,1,3)</f>
         <v>DOD</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="H9" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" s="0" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="N9" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="O9" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="R9" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="I9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="N9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="P9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="R9" s="0" t="n">
-        <v>6</v>
-      </c>
       <c r="S9" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T9" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U9" s="0" t="n">
         <v>0</v>
       </c>
       <c r="V9" s="0" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="W9" s="0" t="n">
-        <v>0.067</v>
+        <v>0.176</v>
       </c>
       <c r="X9" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y9" s="0" t="n">
         <v>1</v>
@@ -1538,32 +1545,32 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D10" s="0" t="str">
-        <f aca="false">MID(C10, 1, 3)</f>
+        <f aca="false">MID(C10,1,3)</f>
         <v>DOD</v>
       </c>
       <c r="E10" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>1.5</v>
+        <v>1.56</v>
       </c>
       <c r="H10" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I10" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J10" s="0" t="n">
         <v>0</v>
@@ -1575,43 +1582,43 @@
         <v>0</v>
       </c>
       <c r="M10" s="0" t="n">
-        <v>4.2</v>
+        <v>18</v>
       </c>
       <c r="N10" s="0" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="O10" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P10" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q10" s="0" t="n">
         <v>4</v>
       </c>
       <c r="R10" s="0" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="S10" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T10" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U10" s="0" t="n">
         <v>0</v>
       </c>
       <c r="V10" s="0" t="n">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="W10" s="0" t="n">
-        <v>0.176</v>
+        <v>0.215</v>
       </c>
       <c r="X10" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Y10" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z10" s="0" t="n">
         <v>0</v>
@@ -1631,32 +1638,32 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D11" s="0" t="str">
-        <f aca="false">MID(C11, 1, 3)</f>
-        <v>DOD</v>
+        <f aca="false">MID(C11,1,3)</f>
+        <v>TAM</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>1.56</v>
+        <v>1.62</v>
       </c>
       <c r="H11" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I11" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J11" s="0" t="n">
         <v>0</v>
@@ -1668,43 +1675,43 @@
         <v>0</v>
       </c>
       <c r="M11" s="0" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N11" s="0" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="O11" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P11" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q11" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R11" s="0" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="S11" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T11" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U11" s="0" t="n">
         <v>0</v>
       </c>
       <c r="V11" s="0" t="n">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="W11" s="0" t="n">
-        <v>0.215</v>
+        <v>0.213</v>
       </c>
       <c r="X11" s="0" t="n">
         <v>4</v>
       </c>
       <c r="Y11" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="0" t="n">
         <v>0</v>
@@ -1724,16 +1731,16 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D12" s="0" t="str">
-        <f aca="false">MID(C12, 1, 3)</f>
+        <f aca="false">MID(C12,1,3)</f>
         <v>DOD</v>
       </c>
       <c r="E12" s="0" t="n">
@@ -1817,32 +1824,32 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D13" s="0" t="str">
-        <f aca="false">MID(C13, 1, 3)</f>
-        <v>TAM</v>
+        <f aca="false">MID(C13,1,3)</f>
+        <v>DOD</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>1.62</v>
+        <v>2.33</v>
       </c>
       <c r="H13" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I13" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J13" s="0" t="n">
         <v>0</v>
@@ -1854,40 +1861,40 @@
         <v>0</v>
       </c>
       <c r="M13" s="0" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="N13" s="0" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="O13" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P13" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q13" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R13" s="0" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="S13" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T13" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U13" s="0" t="n">
         <v>0</v>
       </c>
       <c r="V13" s="0" t="n">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="W13" s="0" t="n">
-        <v>0.213</v>
+        <v>0.286</v>
       </c>
       <c r="X13" s="0" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Y13" s="0" t="n">
         <v>0</v>
@@ -1910,35 +1917,35 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D14" s="0" t="str">
-        <f aca="false">MID(C14, 1, 3)</f>
-        <v>ORI</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>68</v>
+        <f aca="false">MID(C14,1,3)</f>
+        <v>TAM</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>1.85</v>
+        <v>2.47</v>
       </c>
       <c r="H14" s="0" t="n">
         <v>3</v>
       </c>
       <c r="I14" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J14" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" s="0" t="n">
         <v>0</v>
@@ -1947,25 +1954,25 @@
         <v>0</v>
       </c>
       <c r="M14" s="0" t="n">
-        <v>11.1</v>
+        <v>5.2</v>
       </c>
       <c r="N14" s="0" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="O14" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P14" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q14" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="R14" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="P14" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q14" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="R14" s="0" t="n">
-        <v>11</v>
-      </c>
       <c r="S14" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T14" s="0" t="n">
         <v>0</v>
@@ -1974,16 +1981,16 @@
         <v>0</v>
       </c>
       <c r="V14" s="0" t="n">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="W14" s="0" t="n">
-        <v>0.205</v>
+        <v>0.056</v>
       </c>
       <c r="X14" s="0" t="n">
         <v>3</v>
       </c>
       <c r="Y14" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z14" s="0" t="n">
         <v>0</v>
@@ -2003,32 +2010,32 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D15" s="0" t="str">
-        <f aca="false">MID(C15, 1, 3)</f>
-        <v>DOD</v>
+        <f aca="false">MID(C15,1,3)</f>
+        <v>TAM</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>2</v>
+        <v>2.69</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>3</v>
       </c>
       <c r="I15" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J15" s="0" t="n">
         <v>0</v>
@@ -2040,43 +2047,43 @@
         <v>0</v>
       </c>
       <c r="M15" s="0" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="N15" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="O15" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="O15" s="0" t="n">
-        <v>6</v>
-      </c>
       <c r="P15" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q15" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R15" s="0" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="S15" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T15" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U15" s="0" t="n">
         <v>0</v>
       </c>
       <c r="V15" s="0" t="n">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="W15" s="0" t="n">
-        <v>0.208</v>
+        <v>0.271</v>
       </c>
       <c r="X15" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y15" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z15" s="0" t="n">
         <v>0</v>
@@ -2096,32 +2103,32 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D16" s="0" t="str">
-        <f aca="false">MID(C16, 1, 3)</f>
-        <v>DOD</v>
+        <f aca="false">MID(C16,1,3)</f>
+        <v>ORI</v>
       </c>
       <c r="E16" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>2.33</v>
+        <v>2.8</v>
       </c>
       <c r="H16" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I16" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" s="0" t="n">
         <v>0</v>
@@ -2133,25 +2140,25 @@
         <v>0</v>
       </c>
       <c r="M16" s="0" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="N16" s="0" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="O16" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P16" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q16" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R16" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S16" s="0" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T16" s="0" t="n">
         <v>0</v>
@@ -2160,16 +2167,16 @@
         <v>0</v>
       </c>
       <c r="V16" s="0" t="n">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="W16" s="0" t="n">
-        <v>0.286</v>
+        <v>0.282</v>
       </c>
       <c r="X16" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Y16" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z16" s="0" t="n">
         <v>0</v>
@@ -2189,56 +2196,56 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D17" s="0" t="str">
-        <f aca="false">MID(C17, 1, 3)</f>
+        <f aca="false">MID(C17,1,3)</f>
         <v>ORI</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>2.47</v>
+        <v>2.84</v>
       </c>
       <c r="H17" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="J17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" s="0" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="N17" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="O17" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="I17" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="J17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" s="0" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="N17" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="O17" s="0" t="n">
+      <c r="P17" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="P17" s="0" t="n">
-        <v>4</v>
-      </c>
       <c r="Q17" s="0" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R17" s="0" t="n">
         <v>17</v>
@@ -2253,13 +2260,13 @@
         <v>0</v>
       </c>
       <c r="V17" s="0" t="n">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="W17" s="0" t="n">
-        <v>0.289</v>
+        <v>0.286</v>
       </c>
       <c r="X17" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Y17" s="0" t="n">
         <v>0</v>
@@ -2282,32 +2289,32 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D18" s="0" t="str">
-        <f aca="false">MID(C18, 1, 3)</f>
-        <v>TAM</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>68</v>
+        <f aca="false">MID(C18,1,3)</f>
+        <v>ORI</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>2.69</v>
+        <v>3</v>
       </c>
       <c r="H18" s="0" t="n">
         <v>3</v>
       </c>
       <c r="I18" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J18" s="0" t="n">
         <v>0</v>
@@ -2319,25 +2326,25 @@
         <v>0</v>
       </c>
       <c r="M18" s="0" t="n">
-        <v>13</v>
+        <v>4.2</v>
       </c>
       <c r="N18" s="0" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="O18" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P18" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q18" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="R18" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="P18" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q18" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="R18" s="0" t="n">
-        <v>23</v>
-      </c>
       <c r="S18" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T18" s="0" t="n">
         <v>0</v>
@@ -2346,16 +2353,16 @@
         <v>0</v>
       </c>
       <c r="V18" s="0" t="n">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="W18" s="0" t="n">
-        <v>0.271</v>
+        <v>0.118</v>
       </c>
       <c r="X18" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y18" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="0" t="n">
         <v>0</v>
@@ -2381,26 +2388,26 @@
         <v>82</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="D19" s="0" t="str">
-        <f aca="false">MID(C19, 1, 3)</f>
+        <f aca="false">MID(C19,1,3)</f>
         <v>ORI</v>
       </c>
-      <c r="E19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" s="0" t="n">
-        <v>0</v>
+      <c r="E19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="H19" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I19" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J19" s="0" t="n">
         <v>0</v>
@@ -2412,25 +2419,25 @@
         <v>0</v>
       </c>
       <c r="M19" s="0" t="n">
-        <v>4.2</v>
+        <v>13.1</v>
       </c>
       <c r="N19" s="0" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="O19" s="0" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="P19" s="0" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="Q19" s="0" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="R19" s="0" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="S19" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T19" s="0" t="n">
         <v>0</v>
@@ -2439,16 +2446,16 @@
         <v>0</v>
       </c>
       <c r="V19" s="0" t="n">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="W19" s="0" t="n">
-        <v>0.118</v>
+        <v>0.25</v>
       </c>
       <c r="X19" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y19" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z19" s="0" t="n">
         <v>0</v>
@@ -2468,16 +2475,16 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D20" s="0" t="str">
-        <f aca="false">MID(C20, 1, 3)</f>
+        <f aca="false">MID(C20,1,3)</f>
         <v>TAM</v>
       </c>
       <c r="E20" s="0" t="n">
@@ -2561,16 +2568,16 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="D21" s="0" t="str">
-        <f aca="false">MID(C21, 1, 3)</f>
+        <f aca="false">MID(C21,1,3)</f>
         <v>DOD</v>
       </c>
       <c r="E21" s="0" t="n">
@@ -2654,16 +2661,16 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="D22" s="0" t="str">
-        <f aca="false">MID(C22, 1, 3)</f>
+        <f aca="false">MID(C22,1,3)</f>
         <v>ORI</v>
       </c>
       <c r="E22" s="0" t="n">
@@ -2676,10 +2683,10 @@
         <v>3.5</v>
       </c>
       <c r="H22" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" s="0" t="n">
         <v>0</v>
@@ -2694,10 +2701,10 @@
         <v>4</v>
       </c>
       <c r="N22" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O22" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P22" s="0" t="n">
         <v>2</v>
@@ -2706,28 +2713,28 @@
         <v>1</v>
       </c>
       <c r="R22" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S22" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T22" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U22" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V22" s="0" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="W22" s="0" t="n">
-        <v>0.267</v>
+        <v>0.313</v>
       </c>
       <c r="X22" s="0" t="n">
         <v>0</v>
       </c>
       <c r="Y22" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z22" s="0" t="n">
         <v>0</v>
@@ -2753,10 +2760,10 @@
         <v>92</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="D23" s="0" t="str">
-        <f aca="false">MID(C23, 1, 3)</f>
+        <f aca="false">MID(C23,1,3)</f>
         <v>ORI</v>
       </c>
       <c r="E23" s="0" t="n">
@@ -2769,10 +2776,10 @@
         <v>3.5</v>
       </c>
       <c r="H23" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I23" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" s="0" t="n">
         <v>0</v>
@@ -2787,10 +2794,10 @@
         <v>4</v>
       </c>
       <c r="N23" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O23" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P23" s="0" t="n">
         <v>2</v>
@@ -2799,28 +2806,28 @@
         <v>1</v>
       </c>
       <c r="R23" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S23" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T23" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U23" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V23" s="0" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="W23" s="0" t="n">
-        <v>0.313</v>
+        <v>0.267</v>
       </c>
       <c r="X23" s="0" t="n">
         <v>0</v>
       </c>
       <c r="Y23" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="0" t="n">
         <v>0</v>
@@ -2840,16 +2847,16 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D24" s="0" t="str">
-        <f aca="false">MID(C24, 1, 3)</f>
+        <f aca="false">MID(C24,1,3)</f>
         <v>TAM</v>
       </c>
       <c r="E24" s="0" t="n">
@@ -2933,16 +2940,16 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D25" s="0" t="str">
-        <f aca="false">MID(C25, 1, 3)</f>
+        <f aca="false">MID(C25,1,3)</f>
         <v>ATL</v>
       </c>
       <c r="E25" s="0" t="n">
@@ -3026,16 +3033,16 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D26" s="0" t="str">
-        <f aca="false">MID(C26, 1, 3)</f>
+        <f aca="false">MID(C26,1,3)</f>
         <v>ATL</v>
       </c>
       <c r="E26" s="0" t="n">
@@ -3119,16 +3126,16 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D27" s="0" t="str">
-        <f aca="false">MID(C27, 1, 3)</f>
+        <f aca="false">MID(C27,1,3)</f>
         <v>DOD</v>
       </c>
       <c r="E27" s="0" t="n">
@@ -3212,80 +3219,80 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>52</v>
+        <v>105</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="D28" s="0" t="str">
-        <f aca="false">MID(C28, 1, 3)</f>
-        <v>ATL</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>68</v>
+        <f aca="false">MID(C28,1,3)</f>
+        <v>ORI</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="G28" s="0" t="n">
         <v>5.25</v>
       </c>
       <c r="H28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" s="0" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="N28" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="I28" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" s="0" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="N28" s="0" t="n">
-        <v>7</v>
-      </c>
       <c r="O28" s="0" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="P28" s="0" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q28" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R28" s="0" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="S28" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T28" s="0" t="n">
         <v>0</v>
       </c>
       <c r="U28" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V28" s="0" t="n">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="W28" s="0" t="n">
-        <v>0.259</v>
+        <v>0.417</v>
       </c>
       <c r="X28" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Y28" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z28" s="0" t="n">
         <v>0</v>
@@ -3305,32 +3312,32 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>33</v>
+        <v>109</v>
       </c>
       <c r="D29" s="0" t="str">
-        <f aca="false">MID(C29, 1, 3)</f>
-        <v>ORI</v>
-      </c>
-      <c r="E29" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" s="0" t="n">
-        <v>0</v>
+        <f aca="false">MID(C29,1,3)</f>
+        <v>TAM</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="G29" s="0" t="n">
-        <v>5.25</v>
+        <v>5.73</v>
       </c>
       <c r="H29" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I29" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J29" s="0" t="n">
         <v>0</v>
@@ -3342,43 +3349,43 @@
         <v>0</v>
       </c>
       <c r="M29" s="0" t="n">
-        <v>2.2</v>
+        <v>11</v>
       </c>
       <c r="N29" s="0" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O29" s="0" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="P29" s="0" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="Q29" s="0" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="R29" s="0" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="S29" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T29" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U29" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V29" s="0" t="n">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="W29" s="0" t="n">
-        <v>0.417</v>
+        <v>0.189</v>
       </c>
       <c r="X29" s="0" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="Y29" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z29" s="0" t="n">
         <v>0</v>
@@ -3398,32 +3405,32 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D30" s="0" t="str">
-        <f aca="false">MID(C30, 1, 3)</f>
-        <v>TAM</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>67</v>
+        <f aca="false">MID(C30,1,3)</f>
+        <v>ORI</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="G30" s="0" t="n">
-        <v>5.73</v>
+        <v>6</v>
       </c>
       <c r="H30" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I30" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J30" s="0" t="n">
         <v>0</v>
@@ -3435,43 +3442,43 @@
         <v>0</v>
       </c>
       <c r="M30" s="0" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N30" s="0" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O30" s="0" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P30" s="0" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="Q30" s="0" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="R30" s="0" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="S30" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T30" s="0" t="n">
         <v>1</v>
       </c>
       <c r="U30" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V30" s="0" t="n">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="W30" s="0" t="n">
-        <v>0.189</v>
+        <v>0.333</v>
       </c>
       <c r="X30" s="0" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Y30" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z30" s="0" t="n">
         <v>0</v>
@@ -3491,32 +3498,32 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D31" s="0" t="str">
-        <f aca="false">MID(C31, 1, 3)</f>
-        <v>ORI</v>
-      </c>
-      <c r="E31" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" s="0" t="n">
-        <v>2</v>
+        <f aca="false">MID(C31,1,3)</f>
+        <v>DOD</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="G31" s="0" t="n">
-        <v>6</v>
+        <v>6.3</v>
       </c>
       <c r="H31" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I31" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J31" s="0" t="n">
         <v>0</v>
@@ -3528,43 +3535,43 @@
         <v>0</v>
       </c>
       <c r="M31" s="0" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="N31" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="O31" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="P31" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="O31" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="P31" s="0" t="n">
-        <v>6</v>
-      </c>
       <c r="Q31" s="0" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="R31" s="0" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="S31" s="0" t="n">
         <v>3</v>
       </c>
       <c r="T31" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U31" s="0" t="n">
         <v>0</v>
       </c>
       <c r="V31" s="0" t="n">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="W31" s="0" t="n">
-        <v>0.333</v>
+        <v>0.143</v>
       </c>
       <c r="X31" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Y31" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z31" s="0" t="n">
         <v>0</v>
@@ -3584,32 +3591,32 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D32" s="0" t="str">
-        <f aca="false">MID(C32, 1, 3)</f>
-        <v>DOD</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>68</v>
+        <f aca="false">MID(C32,1,3)</f>
+        <v>ORI</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="G32" s="0" t="n">
-        <v>6.3</v>
+        <v>7</v>
       </c>
       <c r="H32" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I32" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J32" s="0" t="n">
         <v>0</v>
@@ -3621,25 +3628,25 @@
         <v>0</v>
       </c>
       <c r="M32" s="0" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="N32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O32" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P32" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q32" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="O32" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="P32" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="Q32" s="0" t="n">
-        <v>15</v>
-      </c>
       <c r="R32" s="0" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="S32" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T32" s="0" t="n">
         <v>0</v>
@@ -3648,16 +3655,16 @@
         <v>0</v>
       </c>
       <c r="V32" s="0" t="n">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="W32" s="0" t="n">
         <v>0.143</v>
       </c>
       <c r="X32" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Y32" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z32" s="0" t="n">
         <v>0</v>
@@ -3677,17 +3684,17 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D33" s="0" t="str">
-        <f aca="false">MID(C33, 1, 3)</f>
-        <v>ORI</v>
+        <f aca="false">MID(C33,1,3)</f>
+        <v>DOD</v>
       </c>
       <c r="E33" s="0" t="n">
         <v>0</v>
@@ -3714,22 +3721,22 @@
         <v>0</v>
       </c>
       <c r="M33" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N33" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O33" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P33" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q33" s="0" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R33" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S33" s="0" t="n">
         <v>0</v>
@@ -3741,16 +3748,16 @@
         <v>0</v>
       </c>
       <c r="V33" s="0" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="W33" s="0" t="n">
-        <v>0.143</v>
+        <v>0</v>
       </c>
       <c r="X33" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y33" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z33" s="0" t="n">
         <v>0</v>
@@ -3770,83 +3777,83 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>120</v>
+        <v>52</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D34" s="0" t="str">
-        <f aca="false">MID(C34, 1, 3)</f>
-        <v>DOD</v>
-      </c>
-      <c r="E34" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" s="0" t="n">
-        <v>0</v>
+        <f aca="false">MID(C34,1,3)</f>
+        <v>ATL</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="G34" s="0" t="n">
+        <v>7.24</v>
+      </c>
+      <c r="H34" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="I34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" s="0" t="n">
+        <v>9.2</v>
+      </c>
+      <c r="N34" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="O34" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="P34" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q34" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="H34" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="P34" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q34" s="0" t="n">
-        <v>2</v>
-      </c>
       <c r="R34" s="0" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="S34" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T34" s="0" t="n">
         <v>0</v>
       </c>
       <c r="U34" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V34" s="0" t="n">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="W34" s="0" t="n">
-        <v>0</v>
+        <v>0.293</v>
       </c>
       <c r="X34" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y34" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z34" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA34" s="0" t="n">
         <v>0</v>
@@ -3863,16 +3870,16 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D35" s="0" t="str">
-        <f aca="false">MID(C35, 1, 3)</f>
+        <f aca="false">MID(C35,1,3)</f>
         <v>ATL</v>
       </c>
       <c r="E35" s="0" t="n">
@@ -3956,32 +3963,32 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>127</v>
+        <v>101</v>
       </c>
       <c r="D36" s="0" t="str">
-        <f aca="false">MID(C36, 1, 3)</f>
+        <f aca="false">MID(C36,1,3)</f>
         <v>ATL</v>
       </c>
-      <c r="E36" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" s="0" t="n">
-        <v>0</v>
+      <c r="E36" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="G36" s="0" t="n">
         <v>7.64</v>
       </c>
       <c r="H36" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I36" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J36" s="0" t="n">
         <v>0</v>
@@ -3993,25 +4000,25 @@
         <v>0</v>
       </c>
       <c r="M36" s="0" t="n">
-        <v>3.2</v>
+        <v>7.1</v>
       </c>
       <c r="N36" s="0" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="O36" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="P36" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q36" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="P36" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q36" s="0" t="n">
-        <v>8</v>
-      </c>
       <c r="R36" s="0" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S36" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T36" s="0" t="n">
         <v>0</v>
@@ -4020,19 +4027,19 @@
         <v>0</v>
       </c>
       <c r="V36" s="0" t="n">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="W36" s="0" t="n">
-        <v>0.333</v>
+        <v>0.387</v>
       </c>
       <c r="X36" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Y36" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z36" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA36" s="0" t="n">
         <v>0</v>
@@ -4058,23 +4065,23 @@
         <v>130</v>
       </c>
       <c r="D37" s="0" t="str">
-        <f aca="false">MID(C37, 1, 3)</f>
-        <v>ORI</v>
+        <f aca="false">MID(C37,1,3)</f>
+        <v>ATL</v>
       </c>
       <c r="E37" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F37" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G37" s="0" t="n">
-        <v>9.33</v>
+        <v>7.64</v>
       </c>
       <c r="H37" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I37" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J37" s="0" t="n">
         <v>0</v>
@@ -4086,25 +4093,25 @@
         <v>0</v>
       </c>
       <c r="M37" s="0" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="N37" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O37" s="0" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P37" s="0" t="n">
         <v>4</v>
       </c>
       <c r="Q37" s="0" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="R37" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S37" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T37" s="0" t="n">
         <v>0</v>
@@ -4113,19 +4120,19 @@
         <v>0</v>
       </c>
       <c r="V37" s="0" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="W37" s="0" t="n">
         <v>0.333</v>
       </c>
       <c r="X37" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Y37" s="0" t="n">
         <v>0</v>
       </c>
       <c r="Z37" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA37" s="0" t="n">
         <v>0</v>
@@ -4148,11 +4155,11 @@
         <v>132</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>95</v>
+        <v>133</v>
       </c>
       <c r="D38" s="0" t="str">
-        <f aca="false">MID(C38, 1, 3)</f>
-        <v>TAM</v>
+        <f aca="false">MID(C38,1,3)</f>
+        <v>ORI</v>
       </c>
       <c r="E38" s="0" t="n">
         <v>0</v>
@@ -4161,13 +4168,13 @@
         <v>1</v>
       </c>
       <c r="G38" s="0" t="n">
-        <v>9.92</v>
+        <v>9.33</v>
       </c>
       <c r="H38" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I38" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J38" s="0" t="n">
         <v>0</v>
@@ -4179,40 +4186,40 @@
         <v>0</v>
       </c>
       <c r="M38" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="N38" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="O38" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="P38" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q38" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="R38" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="S38" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="T38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="N38" s="0" t="n">
-        <v>24</v>
-      </c>
-      <c r="O38" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="P38" s="0" t="n">
-        <v>17</v>
-      </c>
-      <c r="Q38" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="R38" s="0" t="n">
-        <v>19</v>
-      </c>
-      <c r="S38" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="T38" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="U38" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="V38" s="0" t="n">
-        <v>61</v>
-      </c>
       <c r="W38" s="0" t="n">
-        <v>0.393</v>
+        <v>0.333</v>
       </c>
       <c r="X38" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y38" s="0" t="n">
         <v>0</v>
@@ -4235,32 +4242,32 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>45</v>
+        <v>96</v>
       </c>
       <c r="D39" s="0" t="str">
-        <f aca="false">MID(C39, 1, 3)</f>
-        <v>ORI</v>
+        <f aca="false">MID(C39,1,3)</f>
+        <v>TAM</v>
       </c>
       <c r="E39" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G39" s="0" t="n">
-        <v>10.5</v>
+        <v>9.92</v>
       </c>
       <c r="H39" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I39" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J39" s="0" t="n">
         <v>0</v>
@@ -4272,43 +4279,43 @@
         <v>0</v>
       </c>
       <c r="M39" s="0" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="N39" s="0" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="O39" s="0" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="P39" s="0" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="Q39" s="0" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="R39" s="0" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="S39" s="0" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="T39" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U39" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V39" s="0" t="n">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="W39" s="0" t="n">
-        <v>0.222</v>
+        <v>0.393</v>
       </c>
       <c r="X39" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y39" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z39" s="0" t="n">
         <v>0</v>
@@ -4328,32 +4335,32 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="D40" s="0" t="str">
-        <f aca="false">MID(C40, 1, 3)</f>
-        <v>TAM</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>68</v>
+        <f aca="false">MID(C40,1,3)</f>
+        <v>ORI</v>
+      </c>
+      <c r="E40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F40" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="G40" s="0" t="n">
-        <v>11.55</v>
+        <v>10.5</v>
       </c>
       <c r="H40" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I40" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" s="0" t="n">
         <v>0</v>
@@ -4365,25 +4372,25 @@
         <v>0</v>
       </c>
       <c r="M40" s="0" t="n">
-        <v>6.2</v>
+        <v>2</v>
       </c>
       <c r="N40" s="0" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="O40" s="0" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="P40" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="Q40" s="0" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="R40" s="0" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="S40" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T40" s="0" t="n">
         <v>0</v>
@@ -4392,13 +4399,13 @@
         <v>0</v>
       </c>
       <c r="V40" s="0" t="n">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="W40" s="0" t="n">
-        <v>0.286</v>
+        <v>0.222</v>
       </c>
       <c r="X40" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y40" s="0" t="n">
         <v>2</v>
@@ -4421,29 +4428,29 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D41" s="0" t="str">
-        <f aca="false">MID(C41, 1, 3)</f>
-        <v>ATL</v>
+        <f aca="false">MID(C41,1,3)</f>
+        <v>TAM</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="G41" s="0" t="n">
-        <v>12.92</v>
+        <v>11.4</v>
       </c>
       <c r="H41" s="0" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I41" s="0" t="n">
         <v>1</v>
@@ -4458,43 +4465,43 @@
         <v>0</v>
       </c>
       <c r="M41" s="0" t="n">
-        <v>4.1</v>
+        <v>11.2</v>
       </c>
       <c r="N41" s="0" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="O41" s="0" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="P41" s="0" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="Q41" s="0" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="R41" s="0" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="S41" s="0" t="n">
         <v>2</v>
       </c>
       <c r="T41" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U41" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V41" s="0" t="n">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="W41" s="0" t="n">
-        <v>0.5</v>
+        <v>0.306</v>
       </c>
       <c r="X41" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y41" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z41" s="0" t="n">
         <v>0</v>
@@ -4514,16 +4521,16 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D42" s="0" t="str">
-        <f aca="false">MID(C42, 1, 3)</f>
+        <f aca="false">MID(C42,1,3)</f>
         <v>ORI</v>
       </c>
       <c r="E42" s="0" t="n">
@@ -4607,16 +4614,16 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D43" s="0" t="str">
-        <f aca="false">MID(C43, 1, 3)</f>
+        <f aca="false">MID(C43,1,3)</f>
         <v>ORI</v>
       </c>
       <c r="E43" s="0" t="n">
@@ -4700,16 +4707,16 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D44" s="0" t="str">
-        <f aca="false">MID(C44, 1, 3)</f>
+        <f aca="false">MID(C44,1,3)</f>
         <v>TAM</v>
       </c>
       <c r="E44" s="0" t="n">
@@ -4793,16 +4800,16 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D45" s="0" t="str">
-        <f aca="false">MID(C45, 1, 3)</f>
+        <f aca="false">MID(C45,1,3)</f>
         <v>ATL</v>
       </c>
       <c r="E45" s="0" t="n">
@@ -4886,16 +4893,16 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D46" s="0" t="str">
-        <f aca="false">MID(C46, 1, 3)</f>
+        <f aca="false">MID(C46,1,3)</f>
         <v>DOD</v>
       </c>
       <c r="E46" s="0" t="n">

--- a/data/csv/stats_pitching_raw_tsl_2024.xlsx
+++ b/data/csv/stats_pitching_raw_tsl_2024.xlsx
@@ -20,17 +20,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="149">
   <si>
     <t xml:space="preserve">Player</t>
   </si>
   <si>
-    <t xml:space="preserve">First name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Team</t>
-  </si>
-  <si>
     <t xml:space="preserve">W</t>
   </si>
   <si>
@@ -82,7 +76,7 @@
     <t xml:space="preserve">HR</t>
   </si>
   <si>
-    <t xml:space="preserve">AB</t>
+    <t xml:space="preserve"> AB</t>
   </si>
   <si>
     <t xml:space="preserve">B/Avg</t>
@@ -109,6 +103,93 @@
     <t xml:space="preserve">FO</t>
   </si>
   <si>
+    <t xml:space="preserve">GARCIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUISFER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAMPA......</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE LOS SANTOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GUARIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATLAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VAN MOOK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAURO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORIOLES....</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COLLAZO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JESUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DODGERS.....</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FRANCO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YANCARLO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATLANTA...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GONZALEZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DAYAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DODGERS....</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NACAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LESLIE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DODGERS......</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FINOL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DODGERS...........</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOLENMAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEM OUDE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAMPA...</t>
+  </si>
+  <si>
     <t xml:space="preserve">MADRIGAL</t>
   </si>
   <si>
@@ -118,64 +199,13 @@
     <t xml:space="preserve">ATLANTA.....</t>
   </si>
   <si>
-    <t xml:space="preserve">GARCIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LUISFER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAMPA......</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE LOS SANTOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GUARIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATLAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VAN MOOK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAURO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ORIOLES....</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COLLAZO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JESUS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DODGERS.....</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRANCO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YANCARLO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATLANTA...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GONZALEZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DAYAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DODGERS....</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
+    <t xml:space="preserve">ROJAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANGEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DODGERS.......</t>
   </si>
   <si>
     <t xml:space="preserve">BONGE</t>
@@ -187,42 +217,6 @@
     <t xml:space="preserve">DODGERS.........</t>
   </si>
   <si>
-    <t xml:space="preserve">NACAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LESLIE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DODGERS......</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOLENMAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SEM OUDE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAMPA...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FINOL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DODGERS...........</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROJAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANGEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DODGERS.......</t>
-  </si>
-  <si>
     <t xml:space="preserve">CASTILLO</t>
   </si>
   <si>
@@ -319,6 +313,15 @@
     <t xml:space="preserve">RICARDO</t>
   </si>
   <si>
+    <t xml:space="preserve">COLOMBO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GABRIELE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORIOLES..</t>
+  </si>
+  <si>
     <t xml:space="preserve">BALICE</t>
   </si>
   <si>
@@ -328,6 +331,15 @@
     <t xml:space="preserve">ATLANTA.......</t>
   </si>
   <si>
+    <t xml:space="preserve">CARRASCO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FREIONIL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DODGERS.</t>
+  </si>
+  <si>
     <t xml:space="preserve">SPECK</t>
   </si>
   <si>
@@ -343,6 +355,36 @@
     <t xml:space="preserve">FINN</t>
   </si>
   <si>
+    <t xml:space="preserve">SERRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIEGO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TORRES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORIOLES..........</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZAMBRANO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABRAHAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DODGERS..</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JUAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATLANTA........</t>
+  </si>
+  <si>
     <t xml:space="preserve">CHINEA</t>
   </si>
   <si>
@@ -352,54 +394,6 @@
     <t xml:space="preserve">TAMPA........</t>
   </si>
   <si>
-    <t xml:space="preserve">COLOMBO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GABRIELE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ORIOLES..</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CARRASCO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FREIONIL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DODGERS.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TORRES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ORIOLES..........</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZAMBRANO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABRAHAM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DODGERS..</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JUAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATLANTA........</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SERRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIEGO</t>
-  </si>
-  <si>
     <t xml:space="preserve">MIGUEL</t>
   </si>
   <si>
@@ -415,6 +409,12 @@
     <t xml:space="preserve">ATLANTA....</t>
   </si>
   <si>
+    <t xml:space="preserve">DIAZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENMANUEL</t>
+  </si>
+  <si>
     <t xml:space="preserve">KOCH</t>
   </si>
   <si>
@@ -424,10 +424,13 @@
     <t xml:space="preserve">ORIOLES.......</t>
   </si>
   <si>
-    <t xml:space="preserve">DIAZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENMANUEL</t>
+    <t xml:space="preserve">ALBERTINI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DANIELE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORIOLES.</t>
   </si>
   <si>
     <t xml:space="preserve">LAMONJCA</t>
@@ -443,15 +446,6 @@
   </si>
   <si>
     <t xml:space="preserve">DANIEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALBERTINI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DANIELE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ORIOLES.</t>
   </si>
   <si>
     <t xml:space="preserve">REINA</t>
@@ -681,140 +675,135 @@
   </sheetPr>
   <dimension ref="A1:AD46"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="AA2" activeCellId="0" sqref="AA2:AD46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="6.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="4.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="5.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="6.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="5.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="4.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="4.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="4.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="9.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="4.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="14" style="0" width="3.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="16" style="0" width="4.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="4.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="19" style="0" width="3.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="21" style="0" width="4.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="6.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="4.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="5.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="4.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="6.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="4.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="5.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="6.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="5.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="4.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="3.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="4.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="9.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="4.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="14" style="0" width="3.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="3.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="3.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="4.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="19" style="0" width="3.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="4.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="4.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="6.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="4.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="5.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="3.82"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>2</v>
-      </c>
       <c r="E1" s="0" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="S1" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="0" t="s">
+      <c r="T1" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="0" t="s">
+      <c r="U1" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="0" t="s">
+      <c r="V1" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="0" t="s">
+      <c r="W1" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="0" t="s">
+      <c r="X1" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="0" t="s">
+      <c r="Y1" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="0" t="s">
+      <c r="Z1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="0" t="s">
+      <c r="AA1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="0" t="s">
+      <c r="AB1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="0" t="s">
+      <c r="AC1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="0" t="s">
+      <c r="AD1" s="0" t="s">
         <v>26</v>
-      </c>
-      <c r="AC1" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="0" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>31</v>
-      </c>
       <c r="D2" s="0" t="str">
-        <f aca="false">MID(C2,1,3)</f>
-        <v>ATL</v>
+        <f aca="false">MID(C2, 1, 3)</f>
+        <v>TAM</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>0</v>
@@ -826,7 +815,7 @@
         <v>1</v>
       </c>
       <c r="I2" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" s="0" t="n">
         <v>0</v>
@@ -838,10 +827,10 @@
         <v>0</v>
       </c>
       <c r="M2" s="0" t="n">
-        <v>6</v>
+        <v>1.1</v>
       </c>
       <c r="N2" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O2" s="0" t="n">
         <v>0</v>
@@ -850,13 +839,13 @@
         <v>0</v>
       </c>
       <c r="Q2" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R2" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S2" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T2" s="0" t="n">
         <v>0</v>
@@ -865,13 +854,13 @@
         <v>0</v>
       </c>
       <c r="V2" s="0" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="W2" s="0" t="n">
-        <v>0.118</v>
+        <v>0.429</v>
       </c>
       <c r="X2" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y2" s="0" t="n">
         <v>0</v>
@@ -894,17 +883,17 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>34</v>
-      </c>
       <c r="D3" s="0" t="str">
-        <f aca="false">MID(C3,1,3)</f>
-        <v>TAM</v>
+        <f aca="false">MID(C3, 1, 3)</f>
+        <v>ATL</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>0</v>
@@ -931,25 +920,25 @@
         <v>0</v>
       </c>
       <c r="M3" s="0" t="n">
-        <v>1.1</v>
+        <v>0.1</v>
       </c>
       <c r="N3" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O3" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P3" s="0" t="n">
         <v>0</v>
       </c>
       <c r="Q3" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R3" s="0" t="n">
         <v>1</v>
       </c>
       <c r="S3" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T3" s="0" t="n">
         <v>0</v>
@@ -958,16 +947,16 @@
         <v>0</v>
       </c>
       <c r="V3" s="0" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="W3" s="0" t="n">
-        <v>0.429</v>
+        <v>0</v>
       </c>
       <c r="X3" s="0" t="n">
         <v>0</v>
       </c>
       <c r="Y3" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z3" s="0" t="n">
         <v>0</v>
@@ -987,17 +976,17 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>37</v>
-      </c>
       <c r="D4" s="0" t="str">
-        <f aca="false">MID(C4,1,3)</f>
-        <v>ATL</v>
+        <f aca="false">MID(C4, 1, 3)</f>
+        <v>ORI</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>0</v>
@@ -1006,16 +995,16 @@
         <v>0</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>0</v>
+        <v>0.78</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I4" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" s="0" t="n">
         <v>0</v>
@@ -1024,43 +1013,43 @@
         <v>0</v>
       </c>
       <c r="M4" s="0" t="n">
-        <v>0.1</v>
+        <v>9</v>
       </c>
       <c r="N4" s="0" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O4" s="0" t="n">
         <v>2</v>
       </c>
       <c r="P4" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R4" s="0" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="S4" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T4" s="0" t="n">
         <v>0</v>
       </c>
       <c r="U4" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V4" s="0" t="n">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="W4" s="0" t="n">
-        <v>0</v>
+        <v>0.156</v>
       </c>
       <c r="X4" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y4" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="0" t="n">
         <v>0</v>
@@ -1080,17 +1069,17 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>40</v>
-      </c>
       <c r="D5" s="0" t="str">
-        <f aca="false">MID(C5,1,3)</f>
-        <v>ORI</v>
+        <f aca="false">MID(C5, 1, 3)</f>
+        <v>DOD</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>0</v>
@@ -1099,13 +1088,13 @@
         <v>0</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="H5" s="0" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I5" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" s="0" t="n">
         <v>1</v>
@@ -1117,43 +1106,43 @@
         <v>0</v>
       </c>
       <c r="M5" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="N5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O5" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="R5" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="N5" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="O5" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="P5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="R5" s="0" t="n">
-        <v>14</v>
-      </c>
       <c r="S5" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T5" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U5" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V5" s="0" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="W5" s="0" t="n">
-        <v>0.156</v>
+        <v>0.045</v>
       </c>
       <c r="X5" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y5" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z5" s="0" t="n">
         <v>0</v>
@@ -1173,35 +1162,35 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>43</v>
-      </c>
       <c r="D6" s="0" t="str">
-        <f aca="false">MID(C6,1,3)</f>
-        <v>DOD</v>
+        <f aca="false">MID(C6, 1, 3)</f>
+        <v>ATL</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="H6" s="0" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I6" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J6" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" s="0" t="n">
         <v>0</v>
@@ -1210,40 +1199,40 @@
         <v>0</v>
       </c>
       <c r="M6" s="0" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="N6" s="0" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="O6" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P6" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q6" s="0" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="R6" s="0" t="n">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="S6" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T6" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U6" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V6" s="0" t="n">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="W6" s="0" t="n">
-        <v>0.045</v>
+        <v>0.174</v>
       </c>
       <c r="X6" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y6" s="0" t="n">
         <v>1</v>
@@ -1266,32 +1255,32 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="D7" s="0" t="str">
+        <f aca="false">MID(C7, 1, 3)</f>
+        <v>DOD</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="F7" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="0" t="str">
-        <f aca="false">MID(C7,1,3)</f>
-        <v>ATL</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="G7" s="0" t="n">
-        <v>1.11</v>
+        <v>1.17</v>
       </c>
       <c r="H7" s="0" t="n">
         <v>4</v>
       </c>
       <c r="I7" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J7" s="0" t="n">
         <v>0</v>
@@ -1303,43 +1292,43 @@
         <v>0</v>
       </c>
       <c r="M7" s="0" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="N7" s="0" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="O7" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P7" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q7" s="0" t="n">
         <v>4</v>
       </c>
       <c r="R7" s="0" t="n">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="S7" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T7" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U7" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V7" s="0" t="n">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="W7" s="0" t="n">
-        <v>0.174</v>
+        <v>0.209</v>
       </c>
       <c r="X7" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y7" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z7" s="0" t="n">
         <v>0</v>
@@ -1368,23 +1357,23 @@
         <v>49</v>
       </c>
       <c r="D8" s="0" t="str">
-        <f aca="false">MID(C8,1,3)</f>
+        <f aca="false">MID(C8, 1, 3)</f>
         <v>DOD</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>51</v>
+      <c r="E8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>1.17</v>
+        <v>1.56</v>
       </c>
       <c r="H8" s="0" t="n">
         <v>4</v>
       </c>
       <c r="I8" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J8" s="0" t="n">
         <v>0</v>
@@ -1396,25 +1385,25 @@
         <v>0</v>
       </c>
       <c r="M8" s="0" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="N8" s="0" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="O8" s="0" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P8" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q8" s="0" t="n">
         <v>4</v>
       </c>
       <c r="R8" s="0" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="S8" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T8" s="0" t="n">
         <v>1</v>
@@ -1423,13 +1412,13 @@
         <v>0</v>
       </c>
       <c r="V8" s="0" t="n">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="W8" s="0" t="n">
-        <v>0.209</v>
+        <v>0.215</v>
       </c>
       <c r="X8" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Y8" s="0" t="n">
         <v>2</v>
@@ -1452,35 +1441,35 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="B9" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>54</v>
-      </c>
       <c r="D9" s="0" t="str">
-        <f aca="false">MID(C9,1,3)</f>
+        <f aca="false">MID(C9, 1, 3)</f>
         <v>DOD</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="H9" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I9" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" s="0" t="n">
         <v>0</v>
@@ -1489,43 +1478,43 @@
         <v>0</v>
       </c>
       <c r="M9" s="0" t="n">
-        <v>4.2</v>
+        <v>13</v>
       </c>
       <c r="N9" s="0" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="O9" s="0" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="P9" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q9" s="0" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="R9" s="0" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="S9" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T9" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U9" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V9" s="0" t="n">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="W9" s="0" t="n">
-        <v>0.176</v>
+        <v>0.209</v>
       </c>
       <c r="X9" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y9" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Z9" s="0" t="n">
         <v>0</v>
@@ -1545,32 +1534,32 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="B10" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>57</v>
-      </c>
       <c r="D10" s="0" t="str">
-        <f aca="false">MID(C10,1,3)</f>
-        <v>DOD</v>
+        <f aca="false">MID(C10, 1, 3)</f>
+        <v>TAM</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>1.56</v>
+        <v>1.62</v>
       </c>
       <c r="H10" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I10" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J10" s="0" t="n">
         <v>0</v>
@@ -1582,43 +1571,43 @@
         <v>0</v>
       </c>
       <c r="M10" s="0" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N10" s="0" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="O10" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P10" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q10" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R10" s="0" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="S10" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T10" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U10" s="0" t="n">
         <v>0</v>
       </c>
       <c r="V10" s="0" t="n">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="W10" s="0" t="n">
-        <v>0.215</v>
+        <v>0.213</v>
       </c>
       <c r="X10" s="0" t="n">
         <v>4</v>
       </c>
       <c r="Y10" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="0" t="n">
         <v>0</v>
@@ -1638,29 +1627,29 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="B11" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>60</v>
-      </c>
       <c r="D11" s="0" t="str">
-        <f aca="false">MID(C11,1,3)</f>
-        <v>TAM</v>
-      </c>
-      <c r="E11" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F11" s="0" t="n">
-        <v>0</v>
+        <f aca="false">MID(C11, 1, 3)</f>
+        <v>ATL</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>1.62</v>
+        <v>1.91</v>
       </c>
       <c r="H11" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I11" s="0" t="n">
         <v>2</v>
@@ -1675,40 +1664,40 @@
         <v>0</v>
       </c>
       <c r="M11" s="0" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N11" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="O11" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P11" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q11" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="R11" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="O11" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="P11" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q11" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="R11" s="0" t="n">
-        <v>20</v>
-      </c>
       <c r="S11" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T11" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U11" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V11" s="0" t="n">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="W11" s="0" t="n">
-        <v>0.213</v>
+        <v>0.167</v>
       </c>
       <c r="X11" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Y11" s="0" t="n">
         <v>0</v>
@@ -1731,35 +1720,35 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="B12" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>63</v>
-      </c>
       <c r="D12" s="0" t="str">
-        <f aca="false">MID(C12,1,3)</f>
+        <f aca="false">MID(C12, 1, 3)</f>
         <v>DOD</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" s="0" t="n">
-        <v>1.62</v>
+        <v>2.33</v>
       </c>
       <c r="H12" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I12" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" s="0" t="n">
         <v>0</v>
@@ -1768,43 +1757,43 @@
         <v>0</v>
       </c>
       <c r="M12" s="0" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="N12" s="0" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="O12" s="0" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P12" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q12" s="0" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="R12" s="0" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="S12" s="0" t="n">
         <v>0</v>
       </c>
       <c r="T12" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U12" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V12" s="0" t="n">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="W12" s="0" t="n">
-        <v>0.209</v>
+        <v>0.286</v>
       </c>
       <c r="X12" s="0" t="n">
         <v>0</v>
       </c>
       <c r="Y12" s="0" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="0" t="n">
         <v>0</v>
@@ -1824,16 +1813,16 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="B13" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>66</v>
-      </c>
       <c r="D13" s="0" t="str">
-        <f aca="false">MID(C13,1,3)</f>
+        <f aca="false">MID(C13, 1, 3)</f>
         <v>DOD</v>
       </c>
       <c r="E13" s="0" t="n">
@@ -1843,10 +1832,10 @@
         <v>1</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>2.33</v>
+        <v>2.47</v>
       </c>
       <c r="H13" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I13" s="0" t="n">
         <v>0</v>
@@ -1861,7 +1850,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="0" t="n">
-        <v>3</v>
+        <v>5.2</v>
       </c>
       <c r="N13" s="0" t="n">
         <v>4</v>
@@ -1870,16 +1859,16 @@
         <v>4</v>
       </c>
       <c r="P13" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q13" s="0" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="R13" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S13" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T13" s="0" t="n">
         <v>0</v>
@@ -1888,16 +1877,16 @@
         <v>0</v>
       </c>
       <c r="V13" s="0" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="W13" s="0" t="n">
-        <v>0.286</v>
+        <v>0.2</v>
       </c>
       <c r="X13" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y13" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z13" s="0" t="n">
         <v>0</v>
@@ -1917,16 +1906,16 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="B14" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>69</v>
-      </c>
       <c r="D14" s="0" t="str">
-        <f aca="false">MID(C14,1,3)</f>
+        <f aca="false">MID(C14, 1, 3)</f>
         <v>TAM</v>
       </c>
       <c r="E14" s="0" t="n">
@@ -2010,23 +1999,23 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="B15" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>72</v>
-      </c>
       <c r="D15" s="0" t="str">
-        <f aca="false">MID(C15,1,3)</f>
+        <f aca="false">MID(C15, 1, 3)</f>
         <v>TAM</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G15" s="0" t="n">
         <v>2.69</v>
@@ -2103,16 +2092,16 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="B16" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>75</v>
-      </c>
       <c r="D16" s="0" t="str">
-        <f aca="false">MID(C16,1,3)</f>
+        <f aca="false">MID(C16, 1, 3)</f>
         <v>ORI</v>
       </c>
       <c r="E16" s="0" t="n">
@@ -2196,16 +2185,16 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="B17" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>78</v>
-      </c>
       <c r="D17" s="0" t="str">
-        <f aca="false">MID(C17,1,3)</f>
+        <f aca="false">MID(C17, 1, 3)</f>
         <v>ORI</v>
       </c>
       <c r="E17" s="0" t="n">
@@ -2289,16 +2278,16 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D18" s="0" t="str">
-        <f aca="false">MID(C18,1,3)</f>
+        <f aca="false">MID(C18, 1, 3)</f>
         <v>ORI</v>
       </c>
       <c r="E18" s="0" t="n">
@@ -2382,23 +2371,23 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="C19" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="B19" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>83</v>
-      </c>
       <c r="D19" s="0" t="str">
-        <f aca="false">MID(C19,1,3)</f>
+        <f aca="false">MID(C19, 1, 3)</f>
         <v>ORI</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G19" s="0" t="n">
         <v>3.15</v>
@@ -2475,16 +2464,16 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="B20" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="C20" s="0" t="s">
-        <v>86</v>
-      </c>
       <c r="D20" s="0" t="str">
-        <f aca="false">MID(C20,1,3)</f>
+        <f aca="false">MID(C20, 1, 3)</f>
         <v>TAM</v>
       </c>
       <c r="E20" s="0" t="n">
@@ -2568,16 +2557,16 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D21" s="0" t="str">
-        <f aca="false">MID(C21,1,3)</f>
+        <f aca="false">MID(C21, 1, 3)</f>
         <v>DOD</v>
       </c>
       <c r="E21" s="0" t="n">
@@ -2661,16 +2650,16 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D22" s="0" t="str">
-        <f aca="false">MID(C22,1,3)</f>
+        <f aca="false">MID(C22, 1, 3)</f>
         <v>ORI</v>
       </c>
       <c r="E22" s="0" t="n">
@@ -2754,16 +2743,16 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="C23" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="B23" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="C23" s="0" t="s">
-        <v>93</v>
-      </c>
       <c r="D23" s="0" t="str">
-        <f aca="false">MID(C23,1,3)</f>
+        <f aca="false">MID(C23, 1, 3)</f>
         <v>ORI</v>
       </c>
       <c r="E23" s="0" t="n">
@@ -2847,16 +2836,16 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="C24" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="B24" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="C24" s="0" t="s">
-        <v>96</v>
-      </c>
       <c r="D24" s="0" t="str">
-        <f aca="false">MID(C24,1,3)</f>
+        <f aca="false">MID(C24, 1, 3)</f>
         <v>TAM</v>
       </c>
       <c r="E24" s="0" t="n">
@@ -2940,16 +2929,16 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D25" s="0" t="str">
-        <f aca="false">MID(C25,1,3)</f>
+        <f aca="false">MID(C25, 1, 3)</f>
         <v>ATL</v>
       </c>
       <c r="E25" s="0" t="n">
@@ -3033,17 +3022,17 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="C26" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="B26" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="C26" s="0" t="s">
-        <v>101</v>
-      </c>
       <c r="D26" s="0" t="str">
-        <f aca="false">MID(C26,1,3)</f>
-        <v>ATL</v>
+        <f aca="false">MID(C26, 1, 3)</f>
+        <v>ORI</v>
       </c>
       <c r="E26" s="0" t="n">
         <v>0</v>
@@ -3052,7 +3041,7 @@
         <v>2</v>
       </c>
       <c r="G26" s="0" t="n">
-        <v>4.34</v>
+        <v>4.2</v>
       </c>
       <c r="H26" s="0" t="n">
         <v>3</v>
@@ -3061,7 +3050,7 @@
         <v>1</v>
       </c>
       <c r="J26" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26" s="0" t="n">
         <v>0</v>
@@ -3070,10 +3059,10 @@
         <v>0</v>
       </c>
       <c r="M26" s="0" t="n">
-        <v>9.2</v>
+        <v>10</v>
       </c>
       <c r="N26" s="0" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O26" s="0" t="n">
         <v>8</v>
@@ -3082,28 +3071,28 @@
         <v>6</v>
       </c>
       <c r="Q26" s="0" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="R26" s="0" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="S26" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T26" s="0" t="n">
         <v>1</v>
       </c>
       <c r="U26" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V26" s="0" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="W26" s="0" t="n">
-        <v>0.289</v>
+        <v>0.265</v>
       </c>
       <c r="X26" s="0" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="Y26" s="0" t="n">
         <v>0</v>
@@ -3126,29 +3115,29 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="C27" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="B27" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="C27" s="0" t="s">
-        <v>104</v>
-      </c>
       <c r="D27" s="0" t="str">
-        <f aca="false">MID(C27,1,3)</f>
-        <v>DOD</v>
+        <f aca="false">MID(C27, 1, 3)</f>
+        <v>ATL</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G27" s="0" t="n">
-        <v>4.67</v>
+        <v>4.34</v>
       </c>
       <c r="H27" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I27" s="0" t="n">
         <v>1</v>
@@ -3163,40 +3152,40 @@
         <v>0</v>
       </c>
       <c r="M27" s="0" t="n">
+        <v>9.2</v>
+      </c>
+      <c r="N27" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="O27" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="P27" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="N27" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="O27" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="P27" s="0" t="n">
-        <v>4</v>
-      </c>
       <c r="Q27" s="0" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="R27" s="0" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="S27" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T27" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U27" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V27" s="0" t="n">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="W27" s="0" t="n">
-        <v>0.182</v>
+        <v>0.289</v>
       </c>
       <c r="X27" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Y27" s="0" t="n">
         <v>0</v>
@@ -3219,32 +3208,32 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="C28" s="0" t="s">
         <v>105</v>
       </c>
-      <c r="B28" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="C28" s="0" t="s">
-        <v>75</v>
-      </c>
       <c r="D28" s="0" t="str">
-        <f aca="false">MID(C28,1,3)</f>
-        <v>ORI</v>
-      </c>
-      <c r="E28" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" s="0" t="n">
-        <v>0</v>
+        <f aca="false">MID(C28, 1, 3)</f>
+        <v>DOD</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="G28" s="0" t="n">
-        <v>5.25</v>
+        <v>4.67</v>
       </c>
       <c r="H28" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I28" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J28" s="0" t="n">
         <v>0</v>
@@ -3256,22 +3245,22 @@
         <v>0</v>
       </c>
       <c r="M28" s="0" t="n">
-        <v>2.2</v>
+        <v>15</v>
       </c>
       <c r="N28" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O28" s="0" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="P28" s="0" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="Q28" s="0" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="R28" s="0" t="n">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="S28" s="0" t="n">
         <v>3</v>
@@ -3283,16 +3272,16 @@
         <v>0</v>
       </c>
       <c r="V28" s="0" t="n">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="W28" s="0" t="n">
-        <v>0.417</v>
+        <v>0.12</v>
       </c>
       <c r="X28" s="0" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Y28" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z28" s="0" t="n">
         <v>0</v>
@@ -3312,32 +3301,32 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="B29" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="C29" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="C29" s="0" t="s">
-        <v>109</v>
-      </c>
       <c r="D29" s="0" t="str">
-        <f aca="false">MID(C29,1,3)</f>
-        <v>TAM</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>50</v>
+        <f aca="false">MID(C29, 1, 3)</f>
+        <v>DOD</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="G29" s="0" t="n">
-        <v>5.73</v>
+        <v>4.67</v>
       </c>
       <c r="H29" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I29" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J29" s="0" t="n">
         <v>0</v>
@@ -3349,43 +3338,43 @@
         <v>0</v>
       </c>
       <c r="M29" s="0" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="N29" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="O29" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="P29" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q29" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="O29" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="P29" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="Q29" s="0" t="n">
-        <v>12</v>
-      </c>
       <c r="R29" s="0" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="S29" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T29" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U29" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V29" s="0" t="n">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="W29" s="0" t="n">
-        <v>0.189</v>
+        <v>0.182</v>
       </c>
       <c r="X29" s="0" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Y29" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z29" s="0" t="n">
         <v>0</v>
@@ -3405,32 +3394,32 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="B30" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="B30" s="0" t="s">
-        <v>111</v>
-      </c>
       <c r="C30" s="0" t="s">
-        <v>112</v>
+        <v>73</v>
       </c>
       <c r="D30" s="0" t="str">
-        <f aca="false">MID(C30,1,3)</f>
+        <f aca="false">MID(C30, 1, 3)</f>
         <v>ORI</v>
       </c>
       <c r="E30" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G30" s="0" t="n">
-        <v>6</v>
+        <v>5.25</v>
       </c>
       <c r="H30" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" s="0" t="n">
         <v>0</v>
@@ -3442,37 +3431,37 @@
         <v>0</v>
       </c>
       <c r="M30" s="0" t="n">
-        <v>7</v>
+        <v>2.2</v>
       </c>
       <c r="N30" s="0" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O30" s="0" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="P30" s="0" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="Q30" s="0" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="R30" s="0" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="S30" s="0" t="n">
         <v>3</v>
       </c>
       <c r="T30" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U30" s="0" t="n">
         <v>0</v>
       </c>
       <c r="V30" s="0" t="n">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="W30" s="0" t="n">
-        <v>0.333</v>
+        <v>0.417</v>
       </c>
       <c r="X30" s="0" t="n">
         <v>4</v>
@@ -3498,35 +3487,35 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="D31" s="0" t="str">
-        <f aca="false">MID(C31,1,3)</f>
-        <v>DOD</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>51</v>
+        <f aca="false">MID(C31, 1, 3)</f>
+        <v>ATL</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="G31" s="0" t="n">
-        <v>6.3</v>
+        <v>6.84</v>
       </c>
       <c r="H31" s="0" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I31" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J31" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K31" s="0" t="n">
         <v>0</v>
@@ -3535,25 +3524,25 @@
         <v>0</v>
       </c>
       <c r="M31" s="0" t="n">
-        <v>10</v>
+        <v>14.1</v>
       </c>
       <c r="N31" s="0" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="O31" s="0" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="P31" s="0" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="Q31" s="0" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="R31" s="0" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="S31" s="0" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="T31" s="0" t="n">
         <v>0</v>
@@ -3562,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="V31" s="0" t="n">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="W31" s="0" t="n">
-        <v>0.143</v>
+        <v>0.293</v>
       </c>
       <c r="X31" s="0" t="n">
         <v>5</v>
@@ -3591,16 +3580,16 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D32" s="0" t="str">
-        <f aca="false">MID(C32,1,3)</f>
+        <f aca="false">MID(C32, 1, 3)</f>
         <v>ORI</v>
       </c>
       <c r="E32" s="0" t="n">
@@ -3684,16 +3673,16 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D33" s="0" t="str">
-        <f aca="false">MID(C33,1,3)</f>
+        <f aca="false">MID(C33, 1, 3)</f>
         <v>DOD</v>
       </c>
       <c r="E33" s="0" t="n">
@@ -3777,23 +3766,23 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D34" s="0" t="str">
-        <f aca="false">MID(C34,1,3)</f>
+        <f aca="false">MID(C34, 1, 3)</f>
         <v>ATL</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G34" s="0" t="n">
         <v>7.24</v>
@@ -3870,35 +3859,35 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="D35" s="0" t="str">
-        <f aca="false">MID(C35,1,3)</f>
-        <v>ATL</v>
-      </c>
-      <c r="E35" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" s="0" t="n">
-        <v>1</v>
+        <f aca="false">MID(C35, 1, 3)</f>
+        <v>TAM</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="G35" s="0" t="n">
-        <v>7.38</v>
+        <v>7.58</v>
       </c>
       <c r="H35" s="0" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I35" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J35" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K35" s="0" t="n">
         <v>0</v>
@@ -3907,43 +3896,43 @@
         <v>0</v>
       </c>
       <c r="M35" s="0" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="N35" s="0" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="O35" s="0" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="P35" s="0" t="n">
         <v>13</v>
       </c>
       <c r="Q35" s="0" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R35" s="0" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="S35" s="0" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="T35" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U35" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V35" s="0" t="n">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="W35" s="0" t="n">
-        <v>0.294</v>
+        <v>0.214</v>
       </c>
       <c r="X35" s="0" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="Y35" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z35" s="0" t="n">
         <v>0</v>
@@ -3963,23 +3952,23 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D36" s="0" t="str">
-        <f aca="false">MID(C36,1,3)</f>
+        <f aca="false">MID(C36, 1, 3)</f>
         <v>ATL</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G36" s="0" t="n">
         <v>7.64</v>
@@ -4056,16 +4045,16 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="C37" s="0" t="s">
         <v>128</v>
       </c>
-      <c r="B37" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="C37" s="0" t="s">
-        <v>130</v>
-      </c>
       <c r="D37" s="0" t="str">
-        <f aca="false">MID(C37,1,3)</f>
+        <f aca="false">MID(C37, 1, 3)</f>
         <v>ATL</v>
       </c>
       <c r="E37" s="0" t="n">
@@ -4149,32 +4138,32 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>133</v>
+        <v>94</v>
       </c>
       <c r="D38" s="0" t="str">
-        <f aca="false">MID(C38,1,3)</f>
-        <v>ORI</v>
+        <f aca="false">MID(C38, 1, 3)</f>
+        <v>TAM</v>
       </c>
       <c r="E38" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F38" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G38" s="0" t="n">
-        <v>9.33</v>
+        <v>8.65</v>
       </c>
       <c r="H38" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I38" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J38" s="0" t="n">
         <v>0</v>
@@ -4186,40 +4175,40 @@
         <v>0</v>
       </c>
       <c r="M38" s="0" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="N38" s="0" t="n">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="O38" s="0" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="P38" s="0" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="Q38" s="0" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="R38" s="0" t="n">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="S38" s="0" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="T38" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U38" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V38" s="0" t="n">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="W38" s="0" t="n">
-        <v>0.333</v>
+        <v>0.38</v>
       </c>
       <c r="X38" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Y38" s="0" t="n">
         <v>0</v>
@@ -4242,17 +4231,17 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>96</v>
+        <v>133</v>
       </c>
       <c r="D39" s="0" t="str">
-        <f aca="false">MID(C39,1,3)</f>
-        <v>TAM</v>
+        <f aca="false">MID(C39, 1, 3)</f>
+        <v>ORI</v>
       </c>
       <c r="E39" s="0" t="n">
         <v>0</v>
@@ -4261,13 +4250,13 @@
         <v>1</v>
       </c>
       <c r="G39" s="0" t="n">
-        <v>9.92</v>
+        <v>9.33</v>
       </c>
       <c r="H39" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I39" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J39" s="0" t="n">
         <v>0</v>
@@ -4279,40 +4268,40 @@
         <v>0</v>
       </c>
       <c r="M39" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="N39" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="O39" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="P39" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q39" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="R39" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="S39" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="T39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V39" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="N39" s="0" t="n">
-        <v>24</v>
-      </c>
-      <c r="O39" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="P39" s="0" t="n">
-        <v>17</v>
-      </c>
-      <c r="Q39" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="R39" s="0" t="n">
-        <v>19</v>
-      </c>
-      <c r="S39" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="T39" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="U39" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="V39" s="0" t="n">
-        <v>61</v>
-      </c>
       <c r="W39" s="0" t="n">
-        <v>0.393</v>
+        <v>0.333</v>
       </c>
       <c r="X39" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y39" s="0" t="n">
         <v>0</v>
@@ -4335,32 +4324,32 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="C40" s="0" t="s">
         <v>136</v>
       </c>
-      <c r="B40" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="C40" s="0" t="s">
-        <v>40</v>
-      </c>
       <c r="D40" s="0" t="str">
-        <f aca="false">MID(C40,1,3)</f>
+        <f aca="false">MID(C40, 1, 3)</f>
         <v>ORI</v>
       </c>
-      <c r="E40" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F40" s="0" t="n">
-        <v>0</v>
+      <c r="E40" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="G40" s="0" t="n">
         <v>10.5</v>
       </c>
       <c r="H40" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I40" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J40" s="0" t="n">
         <v>0</v>
@@ -4372,25 +4361,25 @@
         <v>0</v>
       </c>
       <c r="M40" s="0" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="N40" s="0" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="O40" s="0" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="P40" s="0" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="Q40" s="0" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="R40" s="0" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="S40" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T40" s="0" t="n">
         <v>0</v>
@@ -4399,16 +4388,16 @@
         <v>0</v>
       </c>
       <c r="V40" s="0" t="n">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="W40" s="0" t="n">
-        <v>0.222</v>
+        <v>0.237</v>
       </c>
       <c r="X40" s="0" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Y40" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z40" s="0" t="n">
         <v>0</v>
@@ -4428,29 +4417,29 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="B41" s="0" t="s">
         <v>138</v>
       </c>
-      <c r="B41" s="0" t="s">
-        <v>125</v>
-      </c>
       <c r="C41" s="0" t="s">
-        <v>96</v>
+        <v>35</v>
       </c>
       <c r="D41" s="0" t="str">
-        <f aca="false">MID(C41,1,3)</f>
-        <v>TAM</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>51</v>
+        <f aca="false">MID(C41, 1, 3)</f>
+        <v>ORI</v>
+      </c>
+      <c r="E41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F41" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="G41" s="0" t="n">
-        <v>11.4</v>
+        <v>10.5</v>
       </c>
       <c r="H41" s="0" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I41" s="0" t="n">
         <v>1</v>
@@ -4465,40 +4454,40 @@
         <v>0</v>
       </c>
       <c r="M41" s="0" t="n">
-        <v>11.2</v>
+        <v>2</v>
       </c>
       <c r="N41" s="0" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="O41" s="0" t="n">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="P41" s="0" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="Q41" s="0" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="R41" s="0" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="S41" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T41" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U41" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V41" s="0" t="n">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="W41" s="0" t="n">
-        <v>0.306</v>
+        <v>0.222</v>
       </c>
       <c r="X41" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y41" s="0" t="n">
         <v>2</v>
@@ -4524,29 +4513,29 @@
         <v>139</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>140</v>
+        <v>112</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="D42" s="0" t="str">
-        <f aca="false">MID(C42,1,3)</f>
-        <v>ORI</v>
-      </c>
-      <c r="E42" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F42" s="0" t="n">
-        <v>0</v>
+        <f aca="false">MID(C42, 1, 3)</f>
+        <v>TAM</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="G42" s="0" t="n">
-        <v>14</v>
+        <v>11.4</v>
       </c>
       <c r="H42" s="0" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I42" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" s="0" t="n">
         <v>0</v>
@@ -4558,37 +4547,37 @@
         <v>0</v>
       </c>
       <c r="M42" s="0" t="n">
-        <v>4</v>
+        <v>11.2</v>
       </c>
       <c r="N42" s="0" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O42" s="0" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="P42" s="0" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="Q42" s="0" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="R42" s="0" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="S42" s="0" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T42" s="0" t="n">
         <v>2</v>
       </c>
       <c r="U42" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V42" s="0" t="n">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="W42" s="0" t="n">
-        <v>0.519</v>
+        <v>0.306</v>
       </c>
       <c r="X42" s="0" t="n">
         <v>2</v>
@@ -4614,32 +4603,32 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="B43" s="0" t="s">
         <v>141</v>
       </c>
-      <c r="B43" s="0" t="s">
-        <v>142</v>
-      </c>
       <c r="C43" s="0" t="s">
-        <v>143</v>
+        <v>35</v>
       </c>
       <c r="D43" s="0" t="str">
-        <f aca="false">MID(C43,1,3)</f>
+        <f aca="false">MID(C43, 1, 3)</f>
         <v>ORI</v>
       </c>
       <c r="E43" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F43" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G43" s="0" t="n">
-        <v>15.17</v>
+        <v>14</v>
       </c>
       <c r="H43" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I43" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43" s="0" t="n">
         <v>0</v>
@@ -4651,43 +4640,43 @@
         <v>0</v>
       </c>
       <c r="M43" s="0" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N43" s="0" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="O43" s="0" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P43" s="0" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="Q43" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="R43" s="0" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="S43" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T43" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U43" s="0" t="n">
         <v>0</v>
       </c>
       <c r="V43" s="0" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="W43" s="0" t="n">
-        <v>0.292</v>
+        <v>0.519</v>
       </c>
       <c r="X43" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y43" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z43" s="0" t="n">
         <v>0</v>
@@ -4707,16 +4696,16 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="D44" s="0" t="str">
-        <f aca="false">MID(C44,1,3)</f>
+        <f aca="false">MID(C44, 1, 3)</f>
         <v>TAM</v>
       </c>
       <c r="E44" s="0" t="n">
@@ -4800,16 +4789,16 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="C45" s="0" t="s">
         <v>146</v>
       </c>
-      <c r="B45" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="C45" s="0" t="s">
-        <v>148</v>
-      </c>
       <c r="D45" s="0" t="str">
-        <f aca="false">MID(C45,1,3)</f>
+        <f aca="false">MID(C45, 1, 3)</f>
         <v>ATL</v>
       </c>
       <c r="E45" s="0" t="n">
@@ -4893,16 +4882,16 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D46" s="0" t="str">
-        <f aca="false">MID(C46,1,3)</f>
+        <f aca="false">MID(C46, 1, 3)</f>
         <v>DOD</v>
       </c>
       <c r="E46" s="0" t="n">

--- a/data/csv/stats_pitching_raw_tsl_2024.xlsx
+++ b/data/csv/stats_pitching_raw_tsl_2024.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="152">
   <si>
     <t xml:space="preserve">Player</t>
   </si>
@@ -76,7 +76,7 @@
     <t xml:space="preserve">HR</t>
   </si>
   <si>
-    <t xml:space="preserve"> AB</t>
+    <t xml:space="preserve">AB</t>
   </si>
   <si>
     <t xml:space="preserve">B/Avg</t>
@@ -148,6 +148,15 @@
     <t xml:space="preserve">ATLANTA...</t>
   </si>
   <si>
+    <t xml:space="preserve">MOLENMAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEM OUDE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAMPA...</t>
+  </si>
+  <si>
     <t xml:space="preserve">GONZALEZ</t>
   </si>
   <si>
@@ -160,45 +169,36 @@
     <t xml:space="preserve">2</t>
   </si>
   <si>
+    <t xml:space="preserve">NACAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LESLIE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DODGERS......</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FINOL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DODGERS...........</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MADRIGAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORIC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATLANTA.....</t>
+  </si>
+  <si>
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">NACAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LESLIE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DODGERS......</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FINOL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DODGERS...........</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOLENMAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SEM OUDE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAMPA...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MADRIGAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ORIC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATLANTA.....</t>
-  </si>
-  <si>
     <t xml:space="preserve">ROJAS</t>
   </si>
   <si>
@@ -208,6 +208,24 @@
     <t xml:space="preserve">DODGERS.......</t>
   </si>
   <si>
+    <t xml:space="preserve">CASTILLO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALEJANDRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAMPA..</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NARANJO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GABRIEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORIOLES...</t>
+  </si>
+  <si>
     <t xml:space="preserve">BONGE</t>
   </si>
   <si>
@@ -217,15 +235,6 @@
     <t xml:space="preserve">DODGERS.........</t>
   </si>
   <si>
-    <t xml:space="preserve">CASTILLO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALEJANDRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAMPA..</t>
-  </si>
-  <si>
     <t xml:space="preserve">TORREALBA</t>
   </si>
   <si>
@@ -253,21 +262,21 @@
     <t xml:space="preserve">ORIOLES</t>
   </si>
   <si>
+    <t xml:space="preserve">OTAL TORO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALEXANDER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORIOLE</t>
+  </si>
+  <si>
     <t xml:space="preserve">ZIRONI</t>
   </si>
   <si>
     <t xml:space="preserve">MAICOL</t>
   </si>
   <si>
-    <t xml:space="preserve">OTAL TORO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALEXANDER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ORIOLE</t>
-  </si>
-  <si>
     <t xml:space="preserve">RODRIGUEZ</t>
   </si>
   <si>
@@ -277,51 +286,42 @@
     <t xml:space="preserve">TAMPA.....</t>
   </si>
   <si>
+    <t xml:space="preserve">MENDOZA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RICARDO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MILANO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MANUEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAMPA.......</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGUILAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAFAEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COLOMBO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GABRIELE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORIOLES..</t>
+  </si>
+  <si>
     <t xml:space="preserve">GANASSI</t>
   </si>
   <si>
     <t xml:space="preserve">DAVIDE</t>
   </si>
   <si>
-    <t xml:space="preserve">AGUILAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RAFAEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NARANJO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GABRIEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ORIOLES...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MILANO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MANUEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAMPA.......</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MENDOZA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RICARDO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COLOMBO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GABRIELE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ORIOLES..</t>
-  </si>
-  <si>
     <t xml:space="preserve">BALICE</t>
   </si>
   <si>
@@ -355,6 +355,18 @@
     <t xml:space="preserve">FINN</t>
   </si>
   <si>
+    <t xml:space="preserve">QUINTANA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMUEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIGUEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUIS</t>
+  </si>
+  <si>
     <t xml:space="preserve">SERRA</t>
   </si>
   <si>
@@ -379,34 +391,31 @@
     <t xml:space="preserve">DODGERS..</t>
   </si>
   <si>
+    <t xml:space="preserve">CHINEA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PABLO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAMPA........</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BORLONI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MATTEO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATLANTA....</t>
+  </si>
+  <si>
     <t xml:space="preserve">JUAN</t>
   </si>
   <si>
     <t xml:space="preserve">ATLANTA........</t>
   </si>
   <si>
-    <t xml:space="preserve">CHINEA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PABLO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAMPA........</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MIGUEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LUIS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BORLONI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MATTEO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATLANTA....</t>
+    <t xml:space="preserve">3</t>
   </si>
   <si>
     <t xml:space="preserve">DIAZ</t>
@@ -673,19 +682,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AD46"/>
+  <dimension ref="A1:AD47"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AA2" activeCellId="0" sqref="AA2:AD46"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="6.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="4.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="5.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="6.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="6.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="5.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="4.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="3.82"/>
@@ -698,7 +707,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="4.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="19" style="0" width="3.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="4.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="4.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="3.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="6.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="4.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="5.12"/>
@@ -1265,13 +1274,13 @@
       </c>
       <c r="D7" s="0" t="str">
         <f aca="false">MID(C7, 1, 3)</f>
-        <v>DOD</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>46</v>
+        <v>TAM</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>1.17</v>
@@ -1280,7 +1289,7 @@
         <v>4</v>
       </c>
       <c r="I7" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J7" s="0" t="n">
         <v>0</v>
@@ -1292,43 +1301,43 @@
         <v>0</v>
       </c>
       <c r="M7" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="N7" s="0" t="n">
         <v>12</v>
-      </c>
-      <c r="N7" s="0" t="n">
-        <v>9</v>
       </c>
       <c r="O7" s="0" t="n">
         <v>6</v>
       </c>
       <c r="P7" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q7" s="0" t="n">
         <v>4</v>
       </c>
       <c r="R7" s="0" t="n">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="S7" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T7" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U7" s="0" t="n">
         <v>0</v>
       </c>
       <c r="V7" s="0" t="n">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="W7" s="0" t="n">
-        <v>0.209</v>
+        <v>0.185</v>
       </c>
       <c r="X7" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Y7" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z7" s="0" t="n">
         <v>0</v>
@@ -1348,32 +1357,32 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="0" t="s">
         <v>47</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>49</v>
       </c>
       <c r="D8" s="0" t="str">
         <f aca="false">MID(C8, 1, 3)</f>
         <v>DOD</v>
       </c>
-      <c r="E8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" s="0" t="n">
-        <v>0</v>
+      <c r="E8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>1.56</v>
+        <v>1.31</v>
       </c>
       <c r="H8" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I8" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J8" s="0" t="n">
         <v>0</v>
@@ -1385,25 +1394,25 @@
         <v>0</v>
       </c>
       <c r="M8" s="0" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N8" s="0" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="O8" s="0" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P8" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q8" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R8" s="0" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="S8" s="0" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T8" s="0" t="n">
         <v>1</v>
@@ -1412,13 +1421,13 @@
         <v>0</v>
       </c>
       <c r="V8" s="0" t="n">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="W8" s="0" t="n">
-        <v>0.215</v>
+        <v>0.214</v>
       </c>
       <c r="X8" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Y8" s="0" t="n">
         <v>2</v>
@@ -1441,35 +1450,35 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="C9" s="0" t="s">
         <v>51</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>52</v>
       </c>
       <c r="D9" s="0" t="str">
         <f aca="false">MID(C9, 1, 3)</f>
         <v>DOD</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>1.62</v>
+        <v>1.56</v>
       </c>
       <c r="H9" s="0" t="n">
         <v>4</v>
       </c>
       <c r="I9" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J9" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" s="0" t="n">
         <v>0</v>
@@ -1478,43 +1487,43 @@
         <v>0</v>
       </c>
       <c r="M9" s="0" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="N9" s="0" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="O9" s="0" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P9" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q9" s="0" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="R9" s="0" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="S9" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T9" s="0" t="n">
         <v>1</v>
       </c>
       <c r="U9" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V9" s="0" t="n">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="W9" s="0" t="n">
-        <v>0.209</v>
+        <v>0.215</v>
       </c>
       <c r="X9" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Y9" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Z9" s="0" t="n">
         <v>0</v>
@@ -1534,20 +1543,20 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="C10" s="0" t="s">
         <v>54</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>55</v>
       </c>
       <c r="D10" s="0" t="str">
         <f aca="false">MID(C10, 1, 3)</f>
-        <v>TAM</v>
+        <v>DOD</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>0</v>
@@ -1556,13 +1565,13 @@
         <v>1.62</v>
       </c>
       <c r="H10" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I10" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J10" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" s="0" t="n">
         <v>0</v>
@@ -1574,40 +1583,40 @@
         <v>13</v>
       </c>
       <c r="N10" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="O10" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="P10" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="R10" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="O10" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="P10" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q10" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="R10" s="0" t="n">
-        <v>20</v>
-      </c>
       <c r="S10" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T10" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U10" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V10" s="0" t="n">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="W10" s="0" t="n">
-        <v>0.213</v>
+        <v>0.209</v>
       </c>
       <c r="X10" s="0" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Y10" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z10" s="0" t="n">
         <v>0</v>
@@ -1627,23 +1636,23 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="C11" s="0" t="s">
         <v>57</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>58</v>
       </c>
       <c r="D11" s="0" t="str">
         <f aca="false">MID(C11, 1, 3)</f>
         <v>ATL</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="G11" s="0" t="n">
         <v>1.91</v>
@@ -1823,7 +1832,7 @@
       </c>
       <c r="D13" s="0" t="str">
         <f aca="false">MID(C13, 1, 3)</f>
-        <v>DOD</v>
+        <v>TAM</v>
       </c>
       <c r="E13" s="0" t="n">
         <v>0</v>
@@ -1835,13 +1844,13 @@
         <v>2.47</v>
       </c>
       <c r="H13" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I13" s="0" t="n">
         <v>0</v>
       </c>
       <c r="J13" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" s="0" t="n">
         <v>0</v>
@@ -1853,10 +1862,10 @@
         <v>5.2</v>
       </c>
       <c r="N13" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O13" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P13" s="0" t="n">
         <v>2</v>
@@ -1865,10 +1874,10 @@
         <v>6</v>
       </c>
       <c r="R13" s="0" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="S13" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T13" s="0" t="n">
         <v>0</v>
@@ -1877,16 +1886,16 @@
         <v>0</v>
       </c>
       <c r="V13" s="0" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="W13" s="0" t="n">
-        <v>0.2</v>
+        <v>0.056</v>
       </c>
       <c r="X13" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y13" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z13" s="0" t="n">
         <v>0</v>
@@ -1916,13 +1925,13 @@
       </c>
       <c r="D14" s="0" t="str">
         <f aca="false">MID(C14, 1, 3)</f>
-        <v>TAM</v>
+        <v>ORI</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" s="0" t="n">
         <v>2.47</v>
@@ -1934,7 +1943,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" s="0" t="n">
         <v>0</v>
@@ -1946,40 +1955,40 @@
         <v>5.2</v>
       </c>
       <c r="N14" s="0" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O14" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P14" s="0" t="n">
         <v>2</v>
       </c>
       <c r="Q14" s="0" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R14" s="0" t="n">
         <v>7</v>
       </c>
       <c r="S14" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T14" s="0" t="n">
         <v>0</v>
       </c>
       <c r="U14" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V14" s="0" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="W14" s="0" t="n">
-        <v>0.056</v>
+        <v>0.261</v>
       </c>
       <c r="X14" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y14" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="0" t="n">
         <v>0</v>
@@ -2009,22 +2018,22 @@
       </c>
       <c r="D15" s="0" t="str">
         <f aca="false">MID(C15, 1, 3)</f>
-        <v>TAM</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>46</v>
+        <v>DOD</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>2.69</v>
+        <v>2.47</v>
       </c>
       <c r="H15" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I15" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J15" s="0" t="n">
         <v>0</v>
@@ -2036,25 +2045,25 @@
         <v>0</v>
       </c>
       <c r="M15" s="0" t="n">
-        <v>13</v>
+        <v>5.2</v>
       </c>
       <c r="N15" s="0" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="O15" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="P15" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q15" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="R15" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="P15" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q15" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="R15" s="0" t="n">
-        <v>23</v>
-      </c>
       <c r="S15" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T15" s="0" t="n">
         <v>0</v>
@@ -2063,13 +2072,13 @@
         <v>0</v>
       </c>
       <c r="V15" s="0" t="n">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="W15" s="0" t="n">
-        <v>0.271</v>
+        <v>0.2</v>
       </c>
       <c r="X15" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y15" s="0" t="n">
         <v>1</v>
@@ -2102,22 +2111,22 @@
       </c>
       <c r="D16" s="0" t="str">
         <f aca="false">MID(C16, 1, 3)</f>
-        <v>ORI</v>
-      </c>
-      <c r="E16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" s="0" t="n">
-        <v>0</v>
+        <v>TAM</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>2.8</v>
+        <v>2.69</v>
       </c>
       <c r="H16" s="0" t="n">
         <v>3</v>
       </c>
       <c r="I16" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J16" s="0" t="n">
         <v>0</v>
@@ -2129,25 +2138,25 @@
         <v>0</v>
       </c>
       <c r="M16" s="0" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="N16" s="0" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O16" s="0" t="n">
         <v>5</v>
       </c>
       <c r="P16" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q16" s="0" t="n">
         <v>3</v>
       </c>
       <c r="R16" s="0" t="n">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="S16" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T16" s="0" t="n">
         <v>0</v>
@@ -2156,13 +2165,13 @@
         <v>0</v>
       </c>
       <c r="V16" s="0" t="n">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="W16" s="0" t="n">
-        <v>0.282</v>
+        <v>0.271</v>
       </c>
       <c r="X16" s="0" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Y16" s="0" t="n">
         <v>1</v>
@@ -2198,19 +2207,19 @@
         <v>ORI</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>2.84</v>
+        <v>2.8</v>
       </c>
       <c r="H17" s="0" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I17" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J17" s="0" t="n">
         <v>0</v>
@@ -2222,26 +2231,26 @@
         <v>0</v>
       </c>
       <c r="M17" s="0" t="n">
-        <v>12.1</v>
+        <v>10</v>
       </c>
       <c r="N17" s="0" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="O17" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P17" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q17" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="R17" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="S17" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="Q17" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="R17" s="0" t="n">
-        <v>17</v>
-      </c>
-      <c r="S17" s="0" t="n">
-        <v>3</v>
-      </c>
       <c r="T17" s="0" t="n">
         <v>0</v>
       </c>
@@ -2249,16 +2258,16 @@
         <v>0</v>
       </c>
       <c r="V17" s="0" t="n">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="W17" s="0" t="n">
-        <v>0.286</v>
+        <v>0.282</v>
       </c>
       <c r="X17" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Y17" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z17" s="0" t="n">
         <v>0</v>
@@ -2284,26 +2293,26 @@
         <v>78</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="D18" s="0" t="str">
         <f aca="false">MID(C18, 1, 3)</f>
         <v>ORI</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>3</v>
+        <v>2.84</v>
       </c>
       <c r="H18" s="0" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I18" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J18" s="0" t="n">
         <v>0</v>
@@ -2315,40 +2324,40 @@
         <v>0</v>
       </c>
       <c r="M18" s="0" t="n">
-        <v>4.2</v>
+        <v>12.1</v>
       </c>
       <c r="N18" s="0" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="O18" s="0" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="P18" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q18" s="0" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="R18" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="S18" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="T18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V18" s="0" t="n">
+        <v>49</v>
+      </c>
+      <c r="W18" s="0" t="n">
+        <v>0.286</v>
+      </c>
+      <c r="X18" s="0" t="n">
         <v>5</v>
-      </c>
-      <c r="S18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="T18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="U18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="V18" s="0" t="n">
-        <v>17</v>
-      </c>
-      <c r="W18" s="0" t="n">
-        <v>0.118</v>
-      </c>
-      <c r="X18" s="0" t="n">
-        <v>2</v>
       </c>
       <c r="Y18" s="0" t="n">
         <v>0</v>
@@ -2371,23 +2380,23 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D19" s="0" t="str">
         <f aca="false">MID(C19, 1, 3)</f>
         <v>ORI</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="G19" s="0" t="n">
         <v>3.15</v>
@@ -2464,62 +2473,62 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="D20" s="0" t="str">
         <f aca="false">MID(C20, 1, 3)</f>
-        <v>TAM</v>
+        <v>ORI</v>
       </c>
       <c r="E20" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" s="0" t="n">
-        <v>3.41</v>
+        <v>3.15</v>
       </c>
       <c r="H20" s="0" t="n">
         <v>4</v>
       </c>
       <c r="I20" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J20" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20" s="0" t="n">
         <v>0</v>
       </c>
       <c r="M20" s="0" t="n">
-        <v>12.1</v>
+        <v>6.2</v>
       </c>
       <c r="N20" s="0" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="O20" s="0" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="P20" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q20" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="R20" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="Q20" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="R20" s="0" t="n">
-        <v>17</v>
-      </c>
       <c r="S20" s="0" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T20" s="0" t="n">
         <v>0</v>
@@ -2528,16 +2537,16 @@
         <v>0</v>
       </c>
       <c r="V20" s="0" t="n">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="W20" s="0" t="n">
-        <v>0.186</v>
+        <v>0.136</v>
       </c>
       <c r="X20" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Y20" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="0" t="n">
         <v>0</v>
@@ -2563,38 +2572,38 @@
         <v>86</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>44</v>
+        <v>87</v>
       </c>
       <c r="D21" s="0" t="str">
         <f aca="false">MID(C21, 1, 3)</f>
-        <v>DOD</v>
+        <v>TAM</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" s="0" t="n">
-        <v>3.5</v>
+        <v>3.41</v>
       </c>
       <c r="H21" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I21" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J21" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21" s="0" t="n">
         <v>0</v>
       </c>
       <c r="M21" s="0" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="N21" s="0" t="n">
         <v>8</v>
@@ -2606,13 +2615,13 @@
         <v>6</v>
       </c>
       <c r="Q21" s="0" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="R21" s="0" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="S21" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T21" s="0" t="n">
         <v>0</v>
@@ -2621,13 +2630,13 @@
         <v>0</v>
       </c>
       <c r="V21" s="0" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="W21" s="0" t="n">
-        <v>0.195</v>
+        <v>0.186</v>
       </c>
       <c r="X21" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Y21" s="0" t="n">
         <v>1</v>
@@ -2650,17 +2659,17 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D22" s="0" t="str">
         <f aca="false">MID(C22, 1, 3)</f>
-        <v>ORI</v>
+        <v>ATL</v>
       </c>
       <c r="E22" s="0" t="n">
         <v>1</v>
@@ -2672,58 +2681,58 @@
         <v>3.5</v>
       </c>
       <c r="H22" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I22" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J22" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K22" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22" s="0" t="n">
         <v>0</v>
       </c>
       <c r="M22" s="0" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="N22" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="O22" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="P22" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q22" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="O22" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="P22" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q22" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="R22" s="0" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="S22" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T22" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U22" s="0" t="n">
         <v>0</v>
       </c>
       <c r="V22" s="0" t="n">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="W22" s="0" t="n">
-        <v>0.313</v>
+        <v>0.234</v>
       </c>
       <c r="X22" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y22" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z22" s="0" t="n">
         <v>0</v>
@@ -2743,20 +2752,20 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D23" s="0" t="str">
         <f aca="false">MID(C23, 1, 3)</f>
-        <v>ORI</v>
+        <v>TAM</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>0</v>
@@ -2765,7 +2774,7 @@
         <v>3.5</v>
       </c>
       <c r="H23" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I23" s="0" t="n">
         <v>0</v>
@@ -2783,7 +2792,7 @@
         <v>4</v>
       </c>
       <c r="N23" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O23" s="0" t="n">
         <v>2</v>
@@ -2792,13 +2801,13 @@
         <v>2</v>
       </c>
       <c r="Q23" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R23" s="0" t="n">
         <v>6</v>
       </c>
       <c r="S23" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T23" s="0" t="n">
         <v>0</v>
@@ -2810,13 +2819,13 @@
         <v>15</v>
       </c>
       <c r="W23" s="0" t="n">
-        <v>0.267</v>
+        <v>0.2</v>
       </c>
       <c r="X23" s="0" t="n">
         <v>0</v>
       </c>
       <c r="Y23" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z23" s="0" t="n">
         <v>0</v>
@@ -2836,20 +2845,20 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>94</v>
+        <v>35</v>
       </c>
       <c r="D24" s="0" t="str">
         <f aca="false">MID(C24, 1, 3)</f>
-        <v>TAM</v>
+        <v>ORI</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>0</v>
@@ -2858,10 +2867,10 @@
         <v>3.5</v>
       </c>
       <c r="H24" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I24" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" s="0" t="n">
         <v>0</v>
@@ -2873,43 +2882,43 @@
         <v>0</v>
       </c>
       <c r="M24" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N24" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O24" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P24" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q24" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R24" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S24" s="0" t="n">
         <v>0</v>
       </c>
       <c r="T24" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U24" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V24" s="0" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="W24" s="0" t="n">
-        <v>0.143</v>
+        <v>0.313</v>
       </c>
       <c r="X24" s="0" t="n">
         <v>0</v>
       </c>
       <c r="Y24" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z24" s="0" t="n">
         <v>0</v>
@@ -2935,74 +2944,74 @@
         <v>96</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>41</v>
+        <v>97</v>
       </c>
       <c r="D25" s="0" t="str">
         <f aca="false">MID(C25, 1, 3)</f>
-        <v>ATL</v>
+        <v>ORI</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G25" s="0" t="n">
-        <v>3.71</v>
+        <v>3.82</v>
       </c>
       <c r="H25" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I25" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J25" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K25" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L25" s="0" t="n">
         <v>0</v>
       </c>
       <c r="M25" s="0" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="N25" s="0" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O25" s="0" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="P25" s="0" t="n">
         <v>6</v>
       </c>
       <c r="Q25" s="0" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="R25" s="0" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="S25" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T25" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U25" s="0" t="n">
         <v>0</v>
       </c>
       <c r="V25" s="0" t="n">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="W25" s="0" t="n">
-        <v>0.244</v>
+        <v>0.263</v>
       </c>
       <c r="X25" s="0" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="Y25" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Z25" s="0" t="n">
         <v>0</v>
@@ -3022,35 +3031,35 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>99</v>
+        <v>47</v>
       </c>
       <c r="D26" s="0" t="str">
         <f aca="false">MID(C26, 1, 3)</f>
-        <v>ORI</v>
+        <v>DOD</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G26" s="0" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="H26" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I26" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J26" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26" s="0" t="n">
         <v>0</v>
@@ -3059,43 +3068,43 @@
         <v>0</v>
       </c>
       <c r="M26" s="0" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="N26" s="0" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="O26" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="P26" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="P26" s="0" t="n">
-        <v>6</v>
-      </c>
       <c r="Q26" s="0" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="R26" s="0" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="S26" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T26" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U26" s="0" t="n">
         <v>0</v>
       </c>
       <c r="V26" s="0" t="n">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="W26" s="0" t="n">
-        <v>0.265</v>
+        <v>0.212</v>
       </c>
       <c r="X26" s="0" t="n">
         <v>6</v>
       </c>
       <c r="Y26" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z26" s="0" t="n">
         <v>0</v>
@@ -3221,10 +3230,10 @@
         <v>DOD</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="G28" s="0" t="n">
         <v>4.67</v>
@@ -3400,7 +3409,7 @@
         <v>110</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D30" s="0" t="str">
         <f aca="false">MID(C30, 1, 3)</f>
@@ -3493,7 +3502,7 @@
         <v>112</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>102</v>
+        <v>41</v>
       </c>
       <c r="D31" s="0" t="str">
         <f aca="false">MID(C31, 1, 3)</f>
@@ -3503,61 +3512,61 @@
         <v>0</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31" s="0" t="n">
-        <v>6.84</v>
+        <v>5.25</v>
       </c>
       <c r="H31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" s="0" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N31" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="O31" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="P31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="I31" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J31" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="K31" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" s="0" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="N31" s="0" t="n">
-        <v>17</v>
-      </c>
-      <c r="O31" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="P31" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="Q31" s="0" t="n">
-        <v>17</v>
-      </c>
-      <c r="R31" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="S31" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="T31" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="U31" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="V31" s="0" t="n">
-        <v>58</v>
-      </c>
       <c r="W31" s="0" t="n">
-        <v>0.293</v>
+        <v>0.429</v>
       </c>
       <c r="X31" s="0" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Y31" s="0" t="n">
         <v>1</v>
@@ -3586,56 +3595,56 @@
         <v>114</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="D32" s="0" t="str">
         <f aca="false">MID(C32, 1, 3)</f>
-        <v>ORI</v>
-      </c>
-      <c r="E32" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" s="0" t="n">
-        <v>0</v>
+        <v>ATL</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="G32" s="0" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="H32" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="I32" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="J32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" s="0" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="N32" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="O32" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="P32" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q32" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="R32" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="H32" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="N32" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O32" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="P32" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q32" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="R32" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="S32" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T32" s="0" t="n">
         <v>0</v>
@@ -3644,16 +3653,16 @@
         <v>0</v>
       </c>
       <c r="V32" s="0" t="n">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="W32" s="0" t="n">
-        <v>0.143</v>
+        <v>0.368</v>
       </c>
       <c r="X32" s="0" t="n">
         <v>1</v>
       </c>
       <c r="Y32" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z32" s="0" t="n">
         <v>0</v>
@@ -3673,35 +3682,35 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="B33" s="0" t="s">
         <v>116</v>
       </c>
-      <c r="B33" s="0" t="s">
-        <v>117</v>
-      </c>
       <c r="C33" s="0" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="D33" s="0" t="str">
         <f aca="false">MID(C33, 1, 3)</f>
-        <v>DOD</v>
+        <v>ATL</v>
       </c>
       <c r="E33" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F33" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G33" s="0" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="H33" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="H33" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="I33" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K33" s="0" t="n">
         <v>0</v>
@@ -3710,25 +3719,25 @@
         <v>0</v>
       </c>
       <c r="M33" s="0" t="n">
-        <v>1</v>
+        <v>14.1</v>
       </c>
       <c r="N33" s="0" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="O33" s="0" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="P33" s="0" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="Q33" s="0" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="R33" s="0" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="S33" s="0" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="T33" s="0" t="n">
         <v>0</v>
@@ -3737,13 +3746,13 @@
         <v>0</v>
       </c>
       <c r="V33" s="0" t="n">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="W33" s="0" t="n">
-        <v>0</v>
+        <v>0.293</v>
       </c>
       <c r="X33" s="0" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Y33" s="0" t="n">
         <v>1</v>
@@ -3766,32 +3775,32 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>62</v>
+        <v>117</v>
       </c>
       <c r="B34" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="C34" s="0" t="s">
         <v>119</v>
-      </c>
-      <c r="C34" s="0" t="s">
-        <v>120</v>
       </c>
       <c r="D34" s="0" t="str">
         <f aca="false">MID(C34, 1, 3)</f>
-        <v>ATL</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>45</v>
+        <v>ORI</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="G34" s="0" t="n">
-        <v>7.24</v>
+        <v>7</v>
       </c>
       <c r="H34" s="0" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I34" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34" s="0" t="n">
         <v>0</v>
@@ -3803,46 +3812,46 @@
         <v>0</v>
       </c>
       <c r="M34" s="0" t="n">
-        <v>9.2</v>
+        <v>2</v>
       </c>
       <c r="N34" s="0" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="O34" s="0" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="P34" s="0" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="Q34" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="R34" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="S34" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="T34" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="V34" s="0" t="n">
-        <v>41</v>
-      </c>
       <c r="W34" s="0" t="n">
-        <v>0.293</v>
+        <v>0.143</v>
       </c>
       <c r="X34" s="0" t="n">
         <v>1</v>
       </c>
       <c r="Y34" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z34" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA34" s="0" t="n">
         <v>0</v>
@@ -3859,32 +3868,32 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="B35" s="0" t="s">
         <v>121</v>
       </c>
-      <c r="B35" s="0" t="s">
+      <c r="C35" s="0" t="s">
         <v>122</v>
-      </c>
-      <c r="C35" s="0" t="s">
-        <v>123</v>
       </c>
       <c r="D35" s="0" t="str">
         <f aca="false">MID(C35, 1, 3)</f>
-        <v>TAM</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>45</v>
+        <v>DOD</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="G35" s="0" t="n">
-        <v>7.58</v>
+        <v>7</v>
       </c>
       <c r="H35" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I35" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J35" s="0" t="n">
         <v>0</v>
@@ -3896,43 +3905,43 @@
         <v>0</v>
       </c>
       <c r="M35" s="0" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="N35" s="0" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="O35" s="0" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="P35" s="0" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="Q35" s="0" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="R35" s="0" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="S35" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T35" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U35" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V35" s="0" t="n">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="W35" s="0" t="n">
-        <v>0.214</v>
+        <v>0</v>
       </c>
       <c r="X35" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Y35" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z35" s="0" t="n">
         <v>0</v>
@@ -3952,32 +3961,32 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="B36" s="0" t="s">
         <v>124</v>
       </c>
-      <c r="B36" s="0" t="s">
+      <c r="C36" s="0" t="s">
         <v>125</v>
-      </c>
-      <c r="C36" s="0" t="s">
-        <v>102</v>
       </c>
       <c r="D36" s="0" t="str">
         <f aca="false">MID(C36, 1, 3)</f>
-        <v>ATL</v>
+        <v>TAM</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G36" s="0" t="n">
-        <v>7.64</v>
+        <v>7.58</v>
       </c>
       <c r="H36" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I36" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J36" s="0" t="n">
         <v>0</v>
@@ -3989,40 +3998,40 @@
         <v>0</v>
       </c>
       <c r="M36" s="0" t="n">
-        <v>7.1</v>
+        <v>12</v>
       </c>
       <c r="N36" s="0" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="O36" s="0" t="n">
         <v>13</v>
       </c>
       <c r="P36" s="0" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="Q36" s="0" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="R36" s="0" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="S36" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T36" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U36" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V36" s="0" t="n">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="W36" s="0" t="n">
-        <v>0.387</v>
+        <v>0.214</v>
       </c>
       <c r="X36" s="0" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="Y36" s="0" t="n">
         <v>2</v>
@@ -4064,10 +4073,10 @@
         <v>0</v>
       </c>
       <c r="G37" s="0" t="n">
-        <v>7.64</v>
+        <v>8.08</v>
       </c>
       <c r="H37" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I37" s="0" t="n">
         <v>2</v>
@@ -4082,25 +4091,25 @@
         <v>0</v>
       </c>
       <c r="M37" s="0" t="n">
-        <v>3.2</v>
+        <v>4.1</v>
       </c>
       <c r="N37" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="O37" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="P37" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="O37" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="P37" s="0" t="n">
-        <v>4</v>
-      </c>
       <c r="Q37" s="0" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="R37" s="0" t="n">
         <v>1</v>
       </c>
       <c r="S37" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T37" s="0" t="n">
         <v>0</v>
@@ -4109,10 +4118,10 @@
         <v>0</v>
       </c>
       <c r="V37" s="0" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="W37" s="0" t="n">
-        <v>0.333</v>
+        <v>0.375</v>
       </c>
       <c r="X37" s="0" t="n">
         <v>5</v>
@@ -4138,32 +4147,32 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="B38" s="0" t="s">
         <v>129</v>
       </c>
-      <c r="B38" s="0" t="s">
+      <c r="C38" s="0" t="s">
         <v>130</v>
-      </c>
-      <c r="C38" s="0" t="s">
-        <v>94</v>
       </c>
       <c r="D38" s="0" t="str">
         <f aca="false">MID(C38, 1, 3)</f>
-        <v>TAM</v>
-      </c>
-      <c r="E38" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" s="0" t="n">
-        <v>2</v>
+        <v>ATL</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>131</v>
       </c>
       <c r="G38" s="0" t="n">
-        <v>8.65</v>
+        <v>8.27</v>
       </c>
       <c r="H38" s="0" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I38" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J38" s="0" t="n">
         <v>0</v>
@@ -4175,46 +4184,46 @@
         <v>0</v>
       </c>
       <c r="M38" s="0" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="N38" s="0" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="O38" s="0" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="P38" s="0" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="Q38" s="0" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="R38" s="0" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="S38" s="0" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="T38" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U38" s="0" t="n">
         <v>1</v>
       </c>
       <c r="V38" s="0" t="n">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="W38" s="0" t="n">
-        <v>0.38</v>
+        <v>0.333</v>
       </c>
       <c r="X38" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Y38" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z38" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA38" s="0" t="n">
         <v>0</v>
@@ -4231,32 +4240,32 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>133</v>
+        <v>92</v>
       </c>
       <c r="D39" s="0" t="str">
         <f aca="false">MID(C39, 1, 3)</f>
-        <v>ORI</v>
+        <v>TAM</v>
       </c>
       <c r="E39" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F39" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G39" s="0" t="n">
-        <v>9.33</v>
+        <v>8.65</v>
       </c>
       <c r="H39" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I39" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J39" s="0" t="n">
         <v>0</v>
@@ -4268,40 +4277,40 @@
         <v>0</v>
       </c>
       <c r="M39" s="0" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="N39" s="0" t="n">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="O39" s="0" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="P39" s="0" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="Q39" s="0" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="R39" s="0" t="n">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="S39" s="0" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="T39" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U39" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V39" s="0" t="n">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="W39" s="0" t="n">
-        <v>0.333</v>
+        <v>0.38</v>
       </c>
       <c r="X39" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Y39" s="0" t="n">
         <v>0</v>
@@ -4336,20 +4345,20 @@
         <f aca="false">MID(C40, 1, 3)</f>
         <v>ORI</v>
       </c>
-      <c r="E40" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>46</v>
+      <c r="E40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="G40" s="0" t="n">
-        <v>10.5</v>
+        <v>9.33</v>
       </c>
       <c r="H40" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I40" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J40" s="0" t="n">
         <v>0</v>
@@ -4361,43 +4370,43 @@
         <v>0</v>
       </c>
       <c r="M40" s="0" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="N40" s="0" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="O40" s="0" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="P40" s="0" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="Q40" s="0" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="R40" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="S40" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="T40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="S40" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="T40" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="U40" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="V40" s="0" t="n">
-        <v>38</v>
-      </c>
       <c r="W40" s="0" t="n">
-        <v>0.237</v>
+        <v>0.333</v>
       </c>
       <c r="X40" s="0" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Y40" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z40" s="0" t="n">
         <v>0</v>
@@ -4423,26 +4432,26 @@
         <v>138</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>35</v>
+        <v>139</v>
       </c>
       <c r="D41" s="0" t="str">
         <f aca="false">MID(C41, 1, 3)</f>
         <v>ORI</v>
       </c>
-      <c r="E41" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F41" s="0" t="n">
-        <v>0</v>
+      <c r="E41" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="G41" s="0" t="n">
-        <v>10.5</v>
+        <v>10.22</v>
       </c>
       <c r="H41" s="0" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I41" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J41" s="0" t="n">
         <v>0</v>
@@ -4454,43 +4463,43 @@
         <v>0</v>
       </c>
       <c r="M41" s="0" t="n">
-        <v>2</v>
+        <v>12.1</v>
       </c>
       <c r="N41" s="0" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="O41" s="0" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="P41" s="0" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="Q41" s="0" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="R41" s="0" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="S41" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T41" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U41" s="0" t="n">
         <v>0</v>
       </c>
       <c r="V41" s="0" t="n">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="W41" s="0" t="n">
-        <v>0.222</v>
+        <v>0.271</v>
       </c>
       <c r="X41" s="0" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Y41" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z41" s="0" t="n">
         <v>0</v>
@@ -4510,29 +4519,29 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>112</v>
+        <v>141</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>94</v>
+        <v>35</v>
       </c>
       <c r="D42" s="0" t="str">
         <f aca="false">MID(C42, 1, 3)</f>
-        <v>TAM</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>46</v>
+        <v>ORI</v>
+      </c>
+      <c r="E42" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F42" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="G42" s="0" t="n">
-        <v>11.4</v>
+        <v>10.5</v>
       </c>
       <c r="H42" s="0" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I42" s="0" t="n">
         <v>1</v>
@@ -4547,40 +4556,40 @@
         <v>0</v>
       </c>
       <c r="M42" s="0" t="n">
-        <v>11.2</v>
+        <v>2</v>
       </c>
       <c r="N42" s="0" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="O42" s="0" t="n">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="P42" s="0" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="Q42" s="0" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="R42" s="0" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="S42" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T42" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U42" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V42" s="0" t="n">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="W42" s="0" t="n">
-        <v>0.306</v>
+        <v>0.222</v>
       </c>
       <c r="X42" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y42" s="0" t="n">
         <v>2</v>
@@ -4603,32 +4612,32 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>141</v>
+        <v>116</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>35</v>
+        <v>92</v>
       </c>
       <c r="D43" s="0" t="str">
         <f aca="false">MID(C43, 1, 3)</f>
-        <v>ORI</v>
-      </c>
-      <c r="E43" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" s="0" t="n">
-        <v>0</v>
+        <v>TAM</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="G43" s="0" t="n">
-        <v>14</v>
+        <v>11.4</v>
       </c>
       <c r="H43" s="0" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I43" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" s="0" t="n">
         <v>0</v>
@@ -4640,37 +4649,37 @@
         <v>0</v>
       </c>
       <c r="M43" s="0" t="n">
-        <v>4</v>
+        <v>11.2</v>
       </c>
       <c r="N43" s="0" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O43" s="0" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="P43" s="0" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="Q43" s="0" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="R43" s="0" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="S43" s="0" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T43" s="0" t="n">
         <v>2</v>
       </c>
       <c r="U43" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V43" s="0" t="n">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="W43" s="0" t="n">
-        <v>0.519</v>
+        <v>0.306</v>
       </c>
       <c r="X43" s="0" t="n">
         <v>2</v>
@@ -4696,35 +4705,35 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>123</v>
+        <v>35</v>
       </c>
       <c r="D44" s="0" t="str">
         <f aca="false">MID(C44, 1, 3)</f>
-        <v>TAM</v>
+        <v>ORI</v>
       </c>
       <c r="E44" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F44" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G44" s="0" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="H44" s="0" t="n">
         <v>2</v>
       </c>
       <c r="I44" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K44" s="0" t="n">
         <v>0</v>
@@ -4733,46 +4742,46 @@
         <v>0</v>
       </c>
       <c r="M44" s="0" t="n">
-        <v>1.2</v>
+        <v>4</v>
       </c>
       <c r="N44" s="0" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="O44" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="P44" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q44" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="R44" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="S44" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="P44" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q44" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="R44" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="S44" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="T44" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U44" s="0" t="n">
         <v>0</v>
       </c>
       <c r="V44" s="0" t="n">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="W44" s="0" t="n">
-        <v>0.375</v>
+        <v>0.519</v>
       </c>
       <c r="X44" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y44" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z44" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA44" s="0" t="n">
         <v>0</v>
@@ -4789,35 +4798,35 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="D45" s="0" t="str">
         <f aca="false">MID(C45, 1, 3)</f>
-        <v>ATL</v>
+        <v>TAM</v>
       </c>
       <c r="E45" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F45" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G45" s="0" t="n">
         <v>21</v>
       </c>
       <c r="H45" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I45" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K45" s="0" t="n">
         <v>0</v>
@@ -4826,25 +4835,25 @@
         <v>0</v>
       </c>
       <c r="M45" s="0" t="n">
-        <v>0.2</v>
+        <v>1.2</v>
       </c>
       <c r="N45" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O45" s="0" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="P45" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q45" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R45" s="0" t="n">
         <v>1</v>
       </c>
       <c r="S45" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T45" s="0" t="n">
         <v>0</v>
@@ -4853,19 +4862,19 @@
         <v>0</v>
       </c>
       <c r="V45" s="0" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="W45" s="0" t="n">
-        <v>0.4</v>
+        <v>0.375</v>
       </c>
       <c r="X45" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y45" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z45" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA45" s="0" t="n">
         <v>0</v>
@@ -4888,23 +4897,23 @@
         <v>148</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>61</v>
+        <v>149</v>
       </c>
       <c r="D46" s="0" t="str">
         <f aca="false">MID(C46, 1, 3)</f>
-        <v>DOD</v>
+        <v>ATL</v>
       </c>
       <c r="E46" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F46" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G46" s="0" t="n">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="H46" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I46" s="0" t="n">
         <v>0</v>
@@ -4919,43 +4928,43 @@
         <v>0</v>
       </c>
       <c r="M46" s="0" t="n">
-        <v>2.1</v>
+        <v>0.2</v>
       </c>
       <c r="N46" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O46" s="0" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="P46" s="0" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="Q46" s="0" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="R46" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S46" s="0" t="n">
         <v>0</v>
       </c>
       <c r="T46" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U46" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V46" s="0" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="W46" s="0" t="n">
         <v>0.4</v>
       </c>
       <c r="X46" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Y46" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Z46" s="0" t="n">
         <v>0</v>
@@ -4970,6 +4979,99 @@
         <v>0</v>
       </c>
       <c r="AD46" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="D47" s="0" t="str">
+        <f aca="false">MID(C47, 1, 3)</f>
+        <v>DOD</v>
+      </c>
+      <c r="E47" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G47" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="H47" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="I47" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L47" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" s="0" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="N47" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="O47" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="P47" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q47" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="R47" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="S47" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="V47" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="W47" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="X47" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y47" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z47" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB47" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC47" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD47" s="0" t="n">
         <v>0</v>
       </c>
     </row>
